--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_11_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_11_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70100.4106579652</v>
+        <v>61832.63892674653</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4130203.659323774</v>
+        <v>4130203.659323773</v>
       </c>
     </row>
     <row r="11">
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>186.7523660843599</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>63.90941067458682</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>16.78893739230482</v>
       </c>
     </row>
     <row r="12">
@@ -1502,7 +1502,7 @@
         <v>63.32136466518995</v>
       </c>
       <c r="T12" t="n">
-        <v>136.7309641056443</v>
+        <v>136.7309641056456</v>
       </c>
       <c r="U12" t="n">
         <v>182.8596299154304</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>11.68284247578063</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T13" t="n">
         <v>237.5909258267186</v>
       </c>
       <c r="U13" t="n">
-        <v>226.8875658423566</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>138.6740614525571</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>245.7331814946409</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>102.1075471272052</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1770,19 +1770,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>14.36027523235408</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>177.8502825485932</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>398.5660300744983</v>
+        <v>71.90155071014449</v>
       </c>
       <c r="H17" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T17" t="n">
-        <v>53.59433513998514</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2004,19 +2004,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>135.4602252892499</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>127.8588335452395</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.5909258267186</v>
+        <v>143.4761669232222</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>75.47528872301208</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>119.6255280464453</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>132.5114209655571</v>
+        <v>58.2789969893987</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U22" t="n">
         <v>277.3402845023203</v>
@@ -2301,10 +2301,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.1355053042932</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>272.7668897553598</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>54.09882747353761</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>157.1027788907691</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.5985469909796</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>185.3969942988553</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>91.95744310197497</v>
       </c>
       <c r="H24" t="n">
-        <v>41.67982485075779</v>
+        <v>41.6798248507578</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>59.04269475997863</v>
+        <v>59.04269475997864</v>
       </c>
       <c r="T24" t="n">
         <v>135.8024876846551</v>
@@ -2484,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>12.20725820828229</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>163.6254236912036</v>
+        <v>62.81061165857892</v>
       </c>
       <c r="H25" t="n">
-        <v>133.7432254567322</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>2.999528394357021</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>151.5470824546008</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>236.7657827579218</v>
       </c>
       <c r="U25" t="n">
         <v>277.3297507610166</v>
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>217.9402934860804</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>398.1355053042932</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>220.609482175939</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>54.09882747353761</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.26018647019</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.5985469909796</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>91.95744310197497</v>
       </c>
       <c r="H27" t="n">
-        <v>41.67982485075779</v>
+        <v>41.6798248507578</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>59.04269475997863</v>
+        <v>59.04269475997864</v>
       </c>
       <c r="T27" t="n">
         <v>135.8024876846551</v>
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>99.07353293485382</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>42.57846197208645</v>
       </c>
       <c r="H28" t="n">
         <v>133.7432254567322</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>69.63112204701964</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>2.999528394357021</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>151.5470824546008</v>
       </c>
       <c r="T28" t="n">
         <v>236.7657827579218</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>54.09882747353761</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>172.2964085334663</v>
       </c>
       <c r="V29" t="n">
-        <v>185.3969942988562</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>91.95744310197497</v>
       </c>
       <c r="H30" t="n">
-        <v>41.67982485075779</v>
+        <v>41.6798248507578</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>59.04269475997863</v>
+        <v>59.04269475997864</v>
       </c>
       <c r="T30" t="n">
         <v>135.8024876846551</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>160.3231177003885</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>151.0569180700941</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.6254236912036</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.7432254567322</v>
       </c>
       <c r="I31" t="n">
-        <v>69.63112204701963</v>
+        <v>69.63112204701964</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>2.999528394357014</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>151.5470824546008</v>
       </c>
       <c r="T31" t="n">
         <v>236.7657827579218</v>
@@ -3012,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>398.1355053042932</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>272.7668897553598</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>32.52319408308782</v>
+        <v>54.09882747353761</v>
       </c>
       <c r="T32" t="n">
         <v>209.26018647019</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>183.8520967637235</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>91.95744310197497</v>
       </c>
       <c r="H33" t="n">
-        <v>41.67982485075779</v>
+        <v>41.6798248507578</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>59.04269475997863</v>
+        <v>59.04269475997864</v>
       </c>
       <c r="T33" t="n">
         <v>135.8024876846551</v>
@@ -3189,10 +3189,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.96785627379201</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -3201,10 +3201,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.6254236912036</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>68.38031560959817</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>2.999528394357036</v>
       </c>
       <c r="S34" t="n">
-        <v>151.5470824546008</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>236.7657827579218</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3297507610166</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>193.9738458719226</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>272.7668897553598</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>54.09882747353759</v>
+        <v>54.09882747353761</v>
       </c>
       <c r="T35" t="n">
-        <v>209.26018647019</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>131.2981668253178</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>91.95744310197497</v>
       </c>
       <c r="H36" t="n">
-        <v>41.67982485075779</v>
+        <v>41.6798248507578</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>59.04269475997863</v>
+        <v>59.04269475997864</v>
       </c>
       <c r="T36" t="n">
         <v>135.8024876846551</v>
@@ -3432,10 +3432,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.6254236912036</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>151.5470824546008</v>
+        <v>131.7240799332191</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>236.7657827579218</v>
       </c>
       <c r="U37" t="n">
-        <v>264.5961576758918</v>
+        <v>277.3297507610166</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>272.7668897553598</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>54.09882747353759</v>
+        <v>54.09882747353761</v>
       </c>
       <c r="T38" t="n">
-        <v>209.26018647019</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.5985469909796</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>247.9711615120891</v>
+        <v>166.7603637771831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3599,7 +3599,7 @@
         <v>91.95744310197497</v>
       </c>
       <c r="H39" t="n">
-        <v>41.67982485075779</v>
+        <v>41.6798248507578</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>59.04269475997863</v>
+        <v>59.04269475997864</v>
       </c>
       <c r="T39" t="n">
         <v>135.8024876846551</v>
@@ -3663,7 +3663,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -3681,7 +3681,7 @@
         <v>133.7432254567322</v>
       </c>
       <c r="I40" t="n">
-        <v>69.63112204701963</v>
+        <v>69.63112204701964</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>211.8481925292696</v>
+        <v>236.7657827579218</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>145.3352472612198</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3742,13 +3742,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>54.09882747353761</v>
       </c>
       <c r="T41" t="n">
-        <v>39.26227928358016</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.5985469909796</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>131.2981668253178</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>91.95744310197497</v>
       </c>
       <c r="H42" t="n">
-        <v>41.67982485075779</v>
+        <v>41.6798248507578</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>59.04269475997863</v>
+        <v>59.04269475997864</v>
       </c>
       <c r="T42" t="n">
         <v>135.8024876846551</v>
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>117.6606395855122</v>
+        <v>163.6254236912036</v>
       </c>
       <c r="H43" t="n">
-        <v>133.7432254567322</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>69.63112204701963</v>
+        <v>69.63112204701964</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>151.5470824546008</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>236.7657827579218</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3297507610166</v>
+        <v>271.4299404700471</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3982,10 +3982,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>185.3969942988558</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>217.2871631707384</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>91.95744310197497</v>
       </c>
       <c r="H45" t="n">
-        <v>41.67982485075778</v>
+        <v>41.67982485075779</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>18.57926143337144</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.6254236912036</v>
+        <v>72.8101245982967</v>
       </c>
       <c r="H46" t="n">
-        <v>133.7432254567322</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>2.999528394357021</v>
       </c>
       <c r="S46" t="n">
         <v>151.5470824546008</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>648.2075405139576</v>
+        <v>1312.446456732234</v>
       </c>
       <c r="C11" t="n">
-        <v>648.2075405139576</v>
+        <v>885.5457267455345</v>
       </c>
       <c r="D11" t="n">
-        <v>224.9149196989579</v>
+        <v>462.2531059305347</v>
       </c>
       <c r="E11" t="n">
-        <v>224.9149196989579</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="F11" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="G11" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="H11" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="I11" t="n">
-        <v>68.08893453872672</v>
+        <v>68.08893453872656</v>
       </c>
       <c r="J11" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149079</v>
       </c>
       <c r="K11" t="n">
-        <v>366.70612912503</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L11" t="n">
-        <v>598.9981372303101</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M11" t="n">
-        <v>862.6140377103479</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N11" t="n">
         <v>1131.245262923652</v>
@@ -5059,34 +5059,34 @@
         <v>1382.739131455147</v>
       </c>
       <c r="P11" t="n">
-        <v>1591.77691709091</v>
+        <v>1591.776917090911</v>
       </c>
       <c r="Q11" t="n">
-        <v>1740.92751718922</v>
+        <v>1740.927517189221</v>
       </c>
       <c r="R11" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="S11" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T11" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U11" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="V11" t="n">
-        <v>1456.318889045863</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="W11" t="n">
-        <v>1059.92753934621</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="X11" t="n">
-        <v>648.2075405139576</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="Y11" t="n">
-        <v>648.2075405139576</v>
+        <v>1732.294821023764</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>593.4367873432374</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C12" t="n">
-        <v>475.9308838607421</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D12" t="n">
-        <v>372.0909253760273</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E12" t="n">
-        <v>267.3889916489645</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F12" t="n">
-        <v>173.7431613318686</v>
+        <v>173.7431613318685</v>
       </c>
       <c r="G12" t="n">
-        <v>80.62417733004328</v>
+        <v>80.6241773300433</v>
       </c>
       <c r="H12" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="I12" t="n">
-        <v>51.80960935527474</v>
+        <v>75.26691519968661</v>
       </c>
       <c r="J12" t="n">
-        <v>207.6760385564196</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K12" t="n">
-        <v>333.4446641276596</v>
+        <v>734.4196047863173</v>
       </c>
       <c r="L12" t="n">
-        <v>510.0835149583086</v>
+        <v>911.0584556169663</v>
       </c>
       <c r="M12" t="n">
-        <v>719.3582134393235</v>
+        <v>1120.333154097981</v>
       </c>
       <c r="N12" t="n">
-        <v>936.5131952716397</v>
+        <v>1337.488135930298</v>
       </c>
       <c r="O12" t="n">
-        <v>1131.556862259126</v>
+        <v>1532.531802917784</v>
       </c>
       <c r="P12" t="n">
-        <v>1580.474417479231</v>
+        <v>1685.929917764137</v>
       </c>
       <c r="Q12" t="n">
-        <v>1674.905125453737</v>
+        <v>1780.360625738643</v>
       </c>
       <c r="R12" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="S12" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.847329510332</v>
       </c>
       <c r="T12" t="n">
-        <v>1611.735244555135</v>
+        <v>1611.735244555134</v>
       </c>
       <c r="U12" t="n">
-        <v>1427.028547670862</v>
+        <v>1427.028547670861</v>
       </c>
       <c r="V12" t="n">
-        <v>1222.055408810128</v>
+        <v>1222.055408810127</v>
       </c>
       <c r="W12" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X12" t="n">
-        <v>862.0566854100077</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y12" t="n">
-        <v>722.3637967633001</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>371.5655020727056</v>
+        <v>708.9005513302392</v>
       </c>
       <c r="C13" t="n">
-        <v>199.5929389516216</v>
+        <v>536.9279882091552</v>
       </c>
       <c r="D13" t="n">
-        <v>36.27616607839228</v>
+        <v>373.6112153359259</v>
       </c>
       <c r="E13" t="n">
-        <v>36.27616607839228</v>
+        <v>373.6112153359259</v>
       </c>
       <c r="F13" t="n">
-        <v>36.27616607839228</v>
+        <v>201.7494411104863</v>
       </c>
       <c r="G13" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="H13" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="I13" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="J13" t="n">
-        <v>148.0721041840598</v>
+        <v>70.15038753583899</v>
       </c>
       <c r="K13" t="n">
-        <v>463.838861142204</v>
+        <v>385.9171444939832</v>
       </c>
       <c r="L13" t="n">
-        <v>758.1571395025708</v>
+        <v>595.0234223693774</v>
       </c>
       <c r="M13" t="n">
-        <v>1207.074694722675</v>
+        <v>693.0767699469966</v>
       </c>
       <c r="N13" t="n">
-        <v>1304.073400814623</v>
+        <v>790.0754760389445</v>
       </c>
       <c r="O13" t="n">
-        <v>1390.366528636948</v>
+        <v>1238.993031259049</v>
       </c>
       <c r="P13" t="n">
-        <v>1773.863841351391</v>
+        <v>1622.490343973493</v>
       </c>
       <c r="Q13" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R13" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="S13" t="n">
-        <v>1813.808303919614</v>
+        <v>1645.530066266138</v>
       </c>
       <c r="T13" t="n">
-        <v>1573.817469751211</v>
+        <v>1405.539232097735</v>
       </c>
       <c r="U13" t="n">
-        <v>1344.638110314487</v>
+        <v>1405.539232097735</v>
       </c>
       <c r="V13" t="n">
-        <v>1062.926642922516</v>
+        <v>1123.827764705764</v>
       </c>
       <c r="W13" t="n">
-        <v>788.0742390950293</v>
+        <v>848.9753608782767</v>
       </c>
       <c r="X13" t="n">
-        <v>788.0742390950293</v>
+        <v>848.9753608782767</v>
       </c>
       <c r="Y13" t="n">
-        <v>561.7314707847713</v>
+        <v>708.9005513302392</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1314.278017727834</v>
+        <v>1393.959939628084</v>
       </c>
       <c r="C14" t="n">
-        <v>887.3772877411345</v>
+        <v>967.0592096413845</v>
       </c>
       <c r="D14" t="n">
-        <v>887.3772877411345</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="E14" t="n">
-        <v>461.4003478889921</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="F14" t="n">
-        <v>36.27616607839228</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="G14" t="n">
-        <v>36.27616607839228</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H14" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="I14" t="n">
-        <v>68.08893453872668</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J14" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149081</v>
       </c>
       <c r="K14" t="n">
-        <v>366.7061291250299</v>
+        <v>366.70612912503</v>
       </c>
       <c r="L14" t="n">
-        <v>598.9981372303101</v>
+        <v>598.9981372303104</v>
       </c>
       <c r="M14" t="n">
-        <v>862.6140377103484</v>
+        <v>862.6140377103486</v>
       </c>
       <c r="N14" t="n">
         <v>1131.245262923652</v>
       </c>
       <c r="O14" t="n">
-        <v>1382.739131455147</v>
+        <v>1382.739131455148</v>
       </c>
       <c r="P14" t="n">
-        <v>1591.77691709091</v>
+        <v>1591.776917090911</v>
       </c>
       <c r="Q14" t="n">
-        <v>1740.92751718922</v>
+        <v>1740.927517189221</v>
       </c>
       <c r="R14" t="n">
         <v>1813.808303919614</v>
@@ -5308,22 +5308,22 @@
         <v>1813.808303919614</v>
       </c>
       <c r="T14" t="n">
-        <v>1710.669367427487</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="U14" t="n">
-        <v>1710.669367427487</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="V14" t="n">
-        <v>1710.669367427487</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="W14" t="n">
-        <v>1314.278017727834</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="X14" t="n">
-        <v>1314.278017727834</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="Y14" t="n">
-        <v>1314.278017727834</v>
+        <v>1813.808303919614</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>593.4367873432374</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C15" t="n">
-        <v>475.9308838607421</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D15" t="n">
-        <v>372.0909253760273</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E15" t="n">
-        <v>267.3889916489645</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F15" t="n">
-        <v>173.7431613318686</v>
+        <v>173.7431613318685</v>
       </c>
       <c r="G15" t="n">
-        <v>80.62417733004328</v>
+        <v>80.6241773300433</v>
       </c>
       <c r="H15" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="I15" t="n">
-        <v>75.26691519968659</v>
+        <v>75.26691519968661</v>
       </c>
       <c r="J15" t="n">
         <v>141.4213503255156</v>
       </c>
       <c r="K15" t="n">
-        <v>267.1899758967556</v>
+        <v>267.1899758967557</v>
       </c>
       <c r="L15" t="n">
-        <v>443.8288267274046</v>
+        <v>443.8288267274047</v>
       </c>
       <c r="M15" t="n">
-        <v>892.746381947509</v>
+        <v>653.1035252084198</v>
       </c>
       <c r="N15" t="n">
-        <v>1109.901363779825</v>
+        <v>870.258507040736</v>
       </c>
       <c r="O15" t="n">
-        <v>1304.945030767312</v>
+        <v>1072.589455387279</v>
       </c>
       <c r="P15" t="n">
-        <v>1458.343145613665</v>
+        <v>1225.987570233631</v>
       </c>
       <c r="Q15" t="n">
-        <v>1674.905125453737</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R15" t="n">
-        <v>1813.808303919614</v>
+        <v>1813.808303919613</v>
       </c>
       <c r="S15" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T15" t="n">
-        <v>1611.735244555135</v>
+        <v>1611.735244555134</v>
       </c>
       <c r="U15" t="n">
-        <v>1427.028547670862</v>
+        <v>1427.028547670861</v>
       </c>
       <c r="V15" t="n">
-        <v>1222.055408810128</v>
+        <v>1222.055408810127</v>
       </c>
       <c r="W15" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X15" t="n">
-        <v>862.0566854100077</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y15" t="n">
-        <v>722.3637967633001</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="16">
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>723.4058798477686</v>
+        <v>208.2487291994763</v>
       </c>
       <c r="C16" t="n">
-        <v>551.4333167266846</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="D16" t="n">
-        <v>388.1165438534553</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="E16" t="n">
-        <v>388.1165438534553</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="F16" t="n">
-        <v>216.2547696280157</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="G16" t="n">
-        <v>50.78149459592166</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="H16" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="I16" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="J16" t="n">
-        <v>148.0721041840598</v>
+        <v>70.15038753583899</v>
       </c>
       <c r="K16" t="n">
-        <v>216.556252028182</v>
+        <v>385.9171444939832</v>
       </c>
       <c r="L16" t="n">
-        <v>309.0520751284041</v>
+        <v>606.7836421246723</v>
       </c>
       <c r="M16" t="n">
-        <v>757.9696303485086</v>
+        <v>1055.701197344777</v>
       </c>
       <c r="N16" t="n">
-        <v>854.9683364404566</v>
+        <v>1152.699903436725</v>
       </c>
       <c r="O16" t="n">
-        <v>1303.885891660561</v>
+        <v>1238.993031259049</v>
       </c>
       <c r="P16" t="n">
-        <v>1687.383204375005</v>
+        <v>1622.490343973493</v>
       </c>
       <c r="Q16" t="n">
         <v>1813.808303919614</v>
@@ -5463,25 +5463,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S16" t="n">
-        <v>1657.330917251774</v>
+        <v>1657.330917251775</v>
       </c>
       <c r="T16" t="n">
-        <v>1657.330917251774</v>
+        <v>1657.330917251775</v>
       </c>
       <c r="U16" t="n">
-        <v>1657.330917251774</v>
+        <v>1377.189215734279</v>
       </c>
       <c r="V16" t="n">
-        <v>1657.330917251774</v>
+        <v>1095.477748342308</v>
       </c>
       <c r="W16" t="n">
-        <v>1382.478513424287</v>
+        <v>820.6253445148209</v>
       </c>
       <c r="X16" t="n">
-        <v>1139.914616870092</v>
+        <v>578.061447960626</v>
       </c>
       <c r="Y16" t="n">
-        <v>913.5718485598343</v>
+        <v>398.4146979115419</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1143.968056608913</v>
+        <v>535.8047250652381</v>
       </c>
       <c r="C17" t="n">
-        <v>1143.968056608913</v>
+        <v>108.9039950785382</v>
       </c>
       <c r="D17" t="n">
-        <v>1143.968056608913</v>
+        <v>108.9039950785382</v>
       </c>
       <c r="E17" t="n">
-        <v>1143.968056608913</v>
+        <v>108.9039950785382</v>
       </c>
       <c r="F17" t="n">
-        <v>718.8438747983129</v>
+        <v>108.9039950785382</v>
       </c>
       <c r="G17" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H17" t="n">
         <v>36.27616607839228</v>
@@ -5542,25 +5542,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S17" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T17" t="n">
-        <v>1759.672611859023</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U17" t="n">
-        <v>1501.457471482663</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="V17" t="n">
-        <v>1143.968056608913</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="W17" t="n">
-        <v>1143.968056608913</v>
+        <v>1352.861993942601</v>
       </c>
       <c r="X17" t="n">
-        <v>1143.968056608913</v>
+        <v>941.1419951103478</v>
       </c>
       <c r="Y17" t="n">
-        <v>1143.968056608913</v>
+        <v>535.8047250652381</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>593.4367873432373</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C18" t="n">
-        <v>475.930883860742</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D18" t="n">
-        <v>372.0909253760271</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E18" t="n">
         <v>267.3889916489643</v>
@@ -5597,49 +5597,49 @@
         <v>433.5238427951067</v>
       </c>
       <c r="K18" t="n">
-        <v>559.2924683663467</v>
+        <v>628.9641045014115</v>
       </c>
       <c r="L18" t="n">
-        <v>735.9313191969957</v>
+        <v>805.6029553320604</v>
       </c>
       <c r="M18" t="n">
-        <v>945.2060176780107</v>
+        <v>1014.877653813075</v>
       </c>
       <c r="N18" t="n">
-        <v>1162.360999510327</v>
+        <v>1232.032635645392</v>
       </c>
       <c r="O18" t="n">
-        <v>1357.404666497813</v>
+        <v>1427.076302632878</v>
       </c>
       <c r="P18" t="n">
-        <v>1510.802781344166</v>
+        <v>1580.474417479231</v>
       </c>
       <c r="Q18" t="n">
-        <v>1674.905125453736</v>
+        <v>1674.905125453737</v>
       </c>
       <c r="R18" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S18" t="n">
-        <v>1749.84732951033</v>
+        <v>1749.847329510331</v>
       </c>
       <c r="T18" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U18" t="n">
         <v>1427.028547670861</v>
       </c>
       <c r="V18" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W18" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X18" t="n">
-        <v>862.0566854100076</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y18" t="n">
-        <v>722.3637967633</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1011.937267570567</v>
+        <v>173.104676471574</v>
       </c>
       <c r="C19" t="n">
-        <v>839.9647044494834</v>
+        <v>173.104676471574</v>
       </c>
       <c r="D19" t="n">
-        <v>676.6479315762541</v>
+        <v>173.104676471574</v>
       </c>
       <c r="E19" t="n">
-        <v>510.4397257291076</v>
+        <v>173.104676471574</v>
       </c>
       <c r="F19" t="n">
-        <v>338.577951503668</v>
+        <v>173.104676471574</v>
       </c>
       <c r="G19" t="n">
         <v>173.104676471574</v>
@@ -5673,25 +5673,25 @@
         <v>36.27616607839228</v>
       </c>
       <c r="J19" t="n">
-        <v>148.0721041840598</v>
+        <v>70.15038753583897</v>
       </c>
       <c r="K19" t="n">
-        <v>463.838861142204</v>
+        <v>385.9171444939832</v>
       </c>
       <c r="L19" t="n">
-        <v>912.7564163623085</v>
+        <v>834.8346997140877</v>
       </c>
       <c r="M19" t="n">
-        <v>1010.809763939928</v>
+        <v>932.8880472917069</v>
       </c>
       <c r="N19" t="n">
-        <v>1107.808470031876</v>
+        <v>1029.886753383655</v>
       </c>
       <c r="O19" t="n">
-        <v>1238.993031259049</v>
+        <v>1390.366528636948</v>
       </c>
       <c r="P19" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q19" t="n">
         <v>1813.808303919614</v>
@@ -5700,25 +5700,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S19" t="n">
-        <v>1684.657967005231</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T19" t="n">
-        <v>1444.667132836828</v>
+        <v>1668.882882785046</v>
       </c>
       <c r="U19" t="n">
-        <v>1444.667132836828</v>
+        <v>1388.741181267551</v>
       </c>
       <c r="V19" t="n">
-        <v>1444.667132836828</v>
+        <v>1107.02971387558</v>
       </c>
       <c r="W19" t="n">
-        <v>1444.667132836828</v>
+        <v>832.1773100480925</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.103236282633</v>
+        <v>589.6134134938976</v>
       </c>
       <c r="Y19" t="n">
-        <v>1202.103236282633</v>
+        <v>363.2706451836397</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>984.8261641727736</v>
+        <v>1737.570638542834</v>
       </c>
       <c r="C20" t="n">
-        <v>984.8261641727736</v>
+        <v>1310.669908556134</v>
       </c>
       <c r="D20" t="n">
-        <v>984.8261641727736</v>
+        <v>887.3772877411345</v>
       </c>
       <c r="E20" t="n">
-        <v>984.8261641727736</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="F20" t="n">
-        <v>559.7019823621738</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G20" t="n">
-        <v>157.1100327919734</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H20" t="n">
         <v>36.27616607839228</v>
@@ -5782,22 +5782,22 @@
         <v>1813.808303919614</v>
       </c>
       <c r="T20" t="n">
-        <v>1600.530719422884</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="U20" t="n">
-        <v>1342.315579046524</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="V20" t="n">
-        <v>984.8261641727736</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="W20" t="n">
-        <v>984.8261641727736</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="X20" t="n">
-        <v>984.8261641727736</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="Y20" t="n">
-        <v>984.8261641727736</v>
+        <v>1813.808303919614</v>
       </c>
     </row>
     <row r="21">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>508.1960663182077</v>
+        <v>438.9781771515812</v>
       </c>
       <c r="C22" t="n">
-        <v>508.1960663182077</v>
+        <v>267.0056140304972</v>
       </c>
       <c r="D22" t="n">
-        <v>508.1960663182077</v>
+        <v>267.0056140304972</v>
       </c>
       <c r="E22" t="n">
-        <v>341.9878604710613</v>
+        <v>267.0056140304972</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1260862456217</v>
+        <v>95.14383980505764</v>
       </c>
       <c r="G22" t="n">
         <v>36.27616607839228</v>
@@ -5910,22 +5910,22 @@
         <v>36.27616607839228</v>
       </c>
       <c r="J22" t="n">
-        <v>148.0721041840598</v>
+        <v>70.15038753583897</v>
       </c>
       <c r="K22" t="n">
-        <v>463.838861142204</v>
+        <v>138.6345353799611</v>
       </c>
       <c r="L22" t="n">
-        <v>912.7564163623085</v>
+        <v>356.3700675499418</v>
       </c>
       <c r="M22" t="n">
-        <v>1010.809763939928</v>
+        <v>805.2876227700463</v>
       </c>
       <c r="N22" t="n">
-        <v>1107.808470031876</v>
+        <v>1254.205177990151</v>
       </c>
       <c r="O22" t="n">
-        <v>1390.366528636948</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P22" t="n">
         <v>1773.863841351391</v>
@@ -5937,25 +5937,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S22" t="n">
-        <v>1813.808303919614</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T22" t="n">
-        <v>1813.808303919614</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="U22" t="n">
-        <v>1533.666602402119</v>
+        <v>1137.198381565876</v>
       </c>
       <c r="V22" t="n">
-        <v>1251.955135010148</v>
+        <v>855.4869141739048</v>
       </c>
       <c r="W22" t="n">
-        <v>977.1027311826606</v>
+        <v>855.4869141739048</v>
       </c>
       <c r="X22" t="n">
-        <v>734.5388346284657</v>
+        <v>855.4869141739048</v>
       </c>
       <c r="Y22" t="n">
-        <v>508.1960663182077</v>
+        <v>629.1441458636468</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1748.404932218869</v>
+        <v>724.7896466833697</v>
       </c>
       <c r="C23" t="n">
-        <v>1321.504202232169</v>
+        <v>724.7896466833697</v>
       </c>
       <c r="D23" t="n">
-        <v>898.2115814171696</v>
+        <v>724.7896466833697</v>
       </c>
       <c r="E23" t="n">
-        <v>472.2346415650271</v>
+        <v>724.7896466833697</v>
       </c>
       <c r="F23" t="n">
-        <v>47.11045975442728</v>
+        <v>724.7896466833697</v>
       </c>
       <c r="G23" t="n">
-        <v>47.11045975442728</v>
+        <v>322.6325706184271</v>
       </c>
       <c r="H23" t="n">
         <v>47.11045975442728</v>
       </c>
       <c r="I23" t="n">
-        <v>95.35505635606148</v>
+        <v>95.35505635606114</v>
       </c>
       <c r="J23" t="n">
-        <v>247.7373121302878</v>
+        <v>247.737312130288</v>
       </c>
       <c r="K23" t="n">
         <v>484.3638217260097</v>
       </c>
       <c r="L23" t="n">
-        <v>783.9164671286934</v>
+        <v>783.9164671286935</v>
       </c>
       <c r="M23" t="n">
         <v>1122.372786339448</v>
@@ -6016,25 +6016,25 @@
         <v>2355.522987721364</v>
       </c>
       <c r="S23" t="n">
-        <v>2355.522987721364</v>
+        <v>2300.877707445064</v>
       </c>
       <c r="T23" t="n">
-        <v>2355.522987721364</v>
+        <v>2142.188031797822</v>
       </c>
       <c r="U23" t="n">
-        <v>2355.522987721364</v>
+        <v>1884.007681301883</v>
       </c>
       <c r="V23" t="n">
-        <v>2355.522987721364</v>
+        <v>1526.518266428133</v>
       </c>
       <c r="W23" t="n">
-        <v>2355.522987721364</v>
+        <v>1130.12691672848</v>
       </c>
       <c r="X23" t="n">
-        <v>2355.522987721364</v>
+        <v>1130.12691672848</v>
       </c>
       <c r="Y23" t="n">
-        <v>2168.253296510399</v>
+        <v>724.7896466833697</v>
       </c>
     </row>
     <row r="24">
@@ -6065,16 +6065,16 @@
         <v>47.11045975442728</v>
       </c>
       <c r="I24" t="n">
-        <v>70.49554014308066</v>
+        <v>70.49554014308065</v>
       </c>
       <c r="J24" t="n">
-        <v>267.2225335910537</v>
+        <v>267.2225335910539</v>
       </c>
       <c r="K24" t="n">
-        <v>429.8158373207739</v>
+        <v>429.8158373207741</v>
       </c>
       <c r="L24" t="n">
-        <v>655.970012383043</v>
+        <v>655.9700123830431</v>
       </c>
       <c r="M24" t="n">
         <v>923.0267587553963</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>703.6477338244035</v>
+        <v>620.5980652294902</v>
       </c>
       <c r="C25" t="n">
-        <v>531.6751707033195</v>
+        <v>448.6255021084062</v>
       </c>
       <c r="D25" t="n">
-        <v>531.6751707033195</v>
+        <v>448.6255021084062</v>
       </c>
       <c r="E25" t="n">
-        <v>519.3446068565697</v>
+        <v>282.4172962612597</v>
       </c>
       <c r="F25" t="n">
-        <v>347.4828326311301</v>
+        <v>110.5555220358201</v>
       </c>
       <c r="G25" t="n">
-        <v>182.2046268824396</v>
+        <v>47.11045975442728</v>
       </c>
       <c r="H25" t="n">
         <v>47.11045975442728</v>
@@ -6147,16 +6147,16 @@
         <v>47.11045975442728</v>
       </c>
       <c r="J25" t="n">
-        <v>94.50163072160288</v>
+        <v>94.50163072160285</v>
       </c>
       <c r="K25" t="n">
         <v>185.1982788530254</v>
       </c>
       <c r="L25" t="n">
-        <v>648.8390698663901</v>
+        <v>682.5073484159705</v>
       </c>
       <c r="M25" t="n">
-        <v>1190.397392621535</v>
+        <v>1224.065671171116</v>
       </c>
       <c r="N25" t="n">
         <v>1714.685908670866</v>
@@ -6171,28 +6171,28 @@
         <v>2355.522987721364</v>
       </c>
       <c r="R25" t="n">
-        <v>2352.493161060398</v>
+        <v>2355.522987721364</v>
       </c>
       <c r="S25" t="n">
-        <v>2199.415299995144</v>
+        <v>2355.522987721364</v>
       </c>
       <c r="T25" t="n">
-        <v>2199.415299995144</v>
+        <v>2116.365631400231</v>
       </c>
       <c r="U25" t="n">
-        <v>1919.28423862038</v>
+        <v>1836.234570025467</v>
       </c>
       <c r="V25" t="n">
-        <v>1637.572771228409</v>
+        <v>1554.523102633496</v>
       </c>
       <c r="W25" t="n">
-        <v>1362.720367400922</v>
+        <v>1279.670698806009</v>
       </c>
       <c r="X25" t="n">
-        <v>1120.156470846727</v>
+        <v>1037.106802251814</v>
       </c>
       <c r="Y25" t="n">
-        <v>893.8137025364692</v>
+        <v>810.7640339415559</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1943.802988889112</v>
+        <v>672.1053966031467</v>
       </c>
       <c r="C26" t="n">
-        <v>1723.661278297112</v>
+        <v>672.1053966031467</v>
       </c>
       <c r="D26" t="n">
-        <v>1300.368657482112</v>
+        <v>672.1053966031467</v>
       </c>
       <c r="E26" t="n">
-        <v>874.3917176299698</v>
+        <v>672.1053966031467</v>
       </c>
       <c r="F26" t="n">
-        <v>449.26753581937</v>
+        <v>672.1053966031467</v>
       </c>
       <c r="G26" t="n">
-        <v>47.1104597544273</v>
+        <v>269.948320538204</v>
       </c>
       <c r="H26" t="n">
-        <v>47.1104597544273</v>
+        <v>47.11045975442728</v>
       </c>
       <c r="I26" t="n">
         <v>95.35505635606137</v>
@@ -6232,46 +6232,46 @@
         <v>484.3638217260096</v>
       </c>
       <c r="L26" t="n">
-        <v>783.9164671286933</v>
+        <v>783.9164671286932</v>
       </c>
       <c r="M26" t="n">
         <v>1122.372786339448</v>
       </c>
       <c r="N26" t="n">
-        <v>1467.055426501782</v>
+        <v>1467.055426501781</v>
       </c>
       <c r="O26" t="n">
-        <v>1790.362489605417</v>
+        <v>1790.362489605416</v>
       </c>
       <c r="P26" t="n">
-        <v>2060.691175351524</v>
+        <v>2060.691175351523</v>
       </c>
       <c r="Q26" t="n">
-        <v>2255.868688910538</v>
+        <v>2255.868688910537</v>
       </c>
       <c r="R26" t="n">
-        <v>2355.522987721365</v>
+        <v>2355.522987721364</v>
       </c>
       <c r="S26" t="n">
-        <v>2355.522987721365</v>
+        <v>2300.877707445064</v>
       </c>
       <c r="T26" t="n">
-        <v>2355.522987721365</v>
+        <v>2089.503781717599</v>
       </c>
       <c r="U26" t="n">
-        <v>2355.522987721365</v>
+        <v>1831.32343122166</v>
       </c>
       <c r="V26" t="n">
-        <v>2355.522987721365</v>
+        <v>1473.834016347909</v>
       </c>
       <c r="W26" t="n">
-        <v>2355.522987721365</v>
+        <v>1077.442666648256</v>
       </c>
       <c r="X26" t="n">
-        <v>1943.802988889112</v>
+        <v>1077.442666648256</v>
       </c>
       <c r="Y26" t="n">
-        <v>1943.802988889112</v>
+        <v>672.1053966031467</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>601.7912251119909</v>
+        <v>601.7912251119908</v>
       </c>
       <c r="C27" t="n">
-        <v>484.2853216294957</v>
+        <v>484.2853216294956</v>
       </c>
       <c r="D27" t="n">
-        <v>380.4453631447807</v>
+        <v>380.4453631447806</v>
       </c>
       <c r="E27" t="n">
-        <v>275.7434294177179</v>
+        <v>275.7434294177178</v>
       </c>
       <c r="F27" t="n">
         <v>182.097599100622</v>
       </c>
       <c r="G27" t="n">
-        <v>89.21129293701094</v>
+        <v>89.21129293701091</v>
       </c>
       <c r="H27" t="n">
-        <v>47.1104597544273</v>
+        <v>47.11045975442728</v>
       </c>
       <c r="I27" t="n">
-        <v>74.06710582049011</v>
+        <v>93.95284598749248</v>
       </c>
       <c r="J27" t="n">
-        <v>161.7670333061481</v>
+        <v>181.6527734731504</v>
       </c>
       <c r="K27" t="n">
-        <v>324.3603370358683</v>
+        <v>344.2460772028705</v>
       </c>
       <c r="L27" t="n">
-        <v>550.5145120981374</v>
+        <v>570.4002522651397</v>
       </c>
       <c r="M27" t="n">
-        <v>817.5712584704906</v>
+        <v>837.4569986374928</v>
       </c>
       <c r="N27" t="n">
-        <v>1094.037607065979</v>
+        <v>1113.923347232981</v>
       </c>
       <c r="O27" t="n">
-        <v>1343.339587225725</v>
+        <v>1363.225327392727</v>
       </c>
       <c r="P27" t="n">
-        <v>1540.284781890203</v>
+        <v>1560.170522057205</v>
       </c>
       <c r="Q27" t="n">
-        <v>1663.825559482668</v>
+        <v>1683.71129964967</v>
       </c>
       <c r="R27" t="n">
         <v>1816.887690172014</v>
@@ -6347,10 +6347,10 @@
         <v>1033.888469412098</v>
       </c>
       <c r="X27" t="n">
-        <v>870.4111231787613</v>
+        <v>870.4111231787612</v>
       </c>
       <c r="Y27" t="n">
-        <v>730.7182345320537</v>
+        <v>730.7182345320535</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>617.5682385685245</v>
+        <v>467.5202041642369</v>
       </c>
       <c r="C28" t="n">
-        <v>445.5956754474405</v>
+        <v>295.5476410431529</v>
       </c>
       <c r="D28" t="n">
-        <v>282.2789025742112</v>
+        <v>295.5476410431529</v>
       </c>
       <c r="E28" t="n">
-        <v>182.2046268824397</v>
+        <v>295.5476410431529</v>
       </c>
       <c r="F28" t="n">
-        <v>182.2046268824397</v>
+        <v>295.5476410431529</v>
       </c>
       <c r="G28" t="n">
-        <v>182.2046268824397</v>
+        <v>252.5390935966009</v>
       </c>
       <c r="H28" t="n">
-        <v>47.1104597544273</v>
+        <v>117.4449264685885</v>
       </c>
       <c r="I28" t="n">
-        <v>47.1104597544273</v>
+        <v>47.11045975442728</v>
       </c>
       <c r="J28" t="n">
-        <v>94.50163072160289</v>
+        <v>172.4233473698237</v>
       </c>
       <c r="K28" t="n">
-        <v>185.1982788530255</v>
+        <v>263.1199955012463</v>
       </c>
       <c r="L28" t="n">
-        <v>648.839069866391</v>
+        <v>749.6183457559041</v>
       </c>
       <c r="M28" t="n">
-        <v>1190.397392621536</v>
+        <v>877.6411880482276</v>
       </c>
       <c r="N28" t="n">
-        <v>1714.685908670867</v>
+        <v>1401.929704097559</v>
       </c>
       <c r="O28" t="n">
-        <v>2205.704831411962</v>
+        <v>1892.948626838653</v>
       </c>
       <c r="P28" t="n">
-        <v>2299.569187113524</v>
+        <v>2299.569187113523</v>
       </c>
       <c r="Q28" t="n">
-        <v>2355.522987721365</v>
+        <v>2355.522987721364</v>
       </c>
       <c r="R28" t="n">
-        <v>2352.493161060399</v>
+        <v>2355.522987721364</v>
       </c>
       <c r="S28" t="n">
-        <v>2352.493161060399</v>
+        <v>2202.445126656111</v>
       </c>
       <c r="T28" t="n">
-        <v>2113.335804739265</v>
+        <v>1963.287770334978</v>
       </c>
       <c r="U28" t="n">
-        <v>1833.204743364501</v>
+        <v>1683.156708960214</v>
       </c>
       <c r="V28" t="n">
-        <v>1551.49327597253</v>
+        <v>1401.445241568242</v>
       </c>
       <c r="W28" t="n">
-        <v>1276.640872145043</v>
+        <v>1126.592837740755</v>
       </c>
       <c r="X28" t="n">
-        <v>1034.076975590848</v>
+        <v>884.0289411865605</v>
       </c>
       <c r="Y28" t="n">
-        <v>807.7342072805902</v>
+        <v>657.6861728763025</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1748.404932218869</v>
+        <v>1325.112311403869</v>
       </c>
       <c r="C29" t="n">
-        <v>1321.504202232169</v>
+        <v>898.2115814171696</v>
       </c>
       <c r="D29" t="n">
         <v>898.2115814171696</v>
@@ -6451,64 +6451,64 @@
         <v>472.2346415650271</v>
       </c>
       <c r="F29" t="n">
-        <v>47.1104597544273</v>
+        <v>47.11045975442727</v>
       </c>
       <c r="G29" t="n">
-        <v>47.1104597544273</v>
+        <v>47.11045975442727</v>
       </c>
       <c r="H29" t="n">
-        <v>47.1104597544273</v>
+        <v>47.11045975442727</v>
       </c>
       <c r="I29" t="n">
-        <v>95.35505635606114</v>
+        <v>95.35505635606125</v>
       </c>
       <c r="J29" t="n">
         <v>247.7373121302876</v>
       </c>
       <c r="K29" t="n">
-        <v>484.3638217260097</v>
+        <v>484.3638217260095</v>
       </c>
       <c r="L29" t="n">
-        <v>783.9164671286937</v>
+        <v>783.9164671286931</v>
       </c>
       <c r="M29" t="n">
-        <v>1122.372786339449</v>
+        <v>1122.372786339447</v>
       </c>
       <c r="N29" t="n">
-        <v>1467.055426501782</v>
+        <v>1467.05542650178</v>
       </c>
       <c r="O29" t="n">
-        <v>1790.362489605416</v>
+        <v>1790.362489605415</v>
       </c>
       <c r="P29" t="n">
-        <v>2060.691175351524</v>
+        <v>2060.691175351522</v>
       </c>
       <c r="Q29" t="n">
-        <v>2255.868688910538</v>
+        <v>2255.868688910536</v>
       </c>
       <c r="R29" t="n">
-        <v>2355.522987721365</v>
+        <v>2355.522987721363</v>
       </c>
       <c r="S29" t="n">
-        <v>2355.522987721365</v>
+        <v>2300.877707445063</v>
       </c>
       <c r="T29" t="n">
-        <v>2355.522987721365</v>
+        <v>2300.877707445063</v>
       </c>
       <c r="U29" t="n">
-        <v>2355.522987721365</v>
+        <v>2126.840931148632</v>
       </c>
       <c r="V29" t="n">
-        <v>2168.253296510399</v>
+        <v>2126.840931148632</v>
       </c>
       <c r="W29" t="n">
-        <v>2168.253296510399</v>
+        <v>1730.449581448979</v>
       </c>
       <c r="X29" t="n">
-        <v>2168.253296510399</v>
+        <v>1730.449581448979</v>
       </c>
       <c r="Y29" t="n">
-        <v>2168.253296510399</v>
+        <v>1325.112311403869</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>601.7912251119909</v>
+        <v>601.7912251119908</v>
       </c>
       <c r="C30" t="n">
-        <v>484.2853216294957</v>
+        <v>484.2853216294956</v>
       </c>
       <c r="D30" t="n">
-        <v>380.4453631447807</v>
+        <v>380.4453631447806</v>
       </c>
       <c r="E30" t="n">
-        <v>275.7434294177179</v>
+        <v>275.7434294177178</v>
       </c>
       <c r="F30" t="n">
         <v>182.097599100622</v>
       </c>
       <c r="G30" t="n">
-        <v>89.21129293701094</v>
+        <v>89.21129293701091</v>
       </c>
       <c r="H30" t="n">
-        <v>47.1104597544273</v>
+        <v>47.11045975442727</v>
       </c>
       <c r="I30" t="n">
-        <v>70.49554014308069</v>
+        <v>74.06710582049013</v>
       </c>
       <c r="J30" t="n">
-        <v>267.2225335910535</v>
+        <v>161.7670333061481</v>
       </c>
       <c r="K30" t="n">
-        <v>429.8158373207738</v>
+        <v>324.3603370358682</v>
       </c>
       <c r="L30" t="n">
-        <v>655.9700123830429</v>
+        <v>550.5145120981373</v>
       </c>
       <c r="M30" t="n">
-        <v>923.0267587553961</v>
+        <v>817.5712584704904</v>
       </c>
       <c r="N30" t="n">
-        <v>1199.493107350885</v>
+        <v>1094.037607065979</v>
       </c>
       <c r="O30" t="n">
-        <v>1448.795087510631</v>
+        <v>1343.339587225725</v>
       </c>
       <c r="P30" t="n">
-        <v>1645.740282175108</v>
+        <v>1540.284781890203</v>
       </c>
       <c r="Q30" t="n">
-        <v>1769.281059767574</v>
+        <v>1663.825559482668</v>
       </c>
       <c r="R30" t="n">
         <v>1816.887690172014</v>
@@ -6584,10 +6584,10 @@
         <v>1033.888469412098</v>
       </c>
       <c r="X30" t="n">
-        <v>870.4111231787613</v>
+        <v>870.4111231787612</v>
       </c>
       <c r="Y30" t="n">
-        <v>730.7182345320537</v>
+        <v>730.7182345320535</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>617.5682385685245</v>
+        <v>742.372607991723</v>
       </c>
       <c r="C31" t="n">
-        <v>445.5956754474405</v>
+        <v>570.400044870639</v>
       </c>
       <c r="D31" t="n">
-        <v>283.653132315735</v>
+        <v>570.400044870639</v>
       </c>
       <c r="E31" t="n">
-        <v>117.4449264685886</v>
+        <v>417.8172993452914</v>
       </c>
       <c r="F31" t="n">
-        <v>117.4449264685886</v>
+        <v>417.8172993452914</v>
       </c>
       <c r="G31" t="n">
-        <v>117.4449264685886</v>
+        <v>252.5390935966009</v>
       </c>
       <c r="H31" t="n">
-        <v>117.4449264685886</v>
+        <v>117.4449264685885</v>
       </c>
       <c r="I31" t="n">
-        <v>47.1104597544273</v>
+        <v>47.11045975442727</v>
       </c>
       <c r="J31" t="n">
-        <v>94.50163072160291</v>
+        <v>94.50163072160285</v>
       </c>
       <c r="K31" t="n">
-        <v>185.1982788530255</v>
+        <v>413.6919833883671</v>
       </c>
       <c r="L31" t="n">
-        <v>648.8390698663904</v>
+        <v>911.0010529513122</v>
       </c>
       <c r="M31" t="n">
-        <v>1190.397392621536</v>
+        <v>1039.023895243636</v>
       </c>
       <c r="N31" t="n">
-        <v>1714.685908670867</v>
+        <v>1563.312411292967</v>
       </c>
       <c r="O31" t="n">
-        <v>2205.704831411962</v>
+        <v>2054.331334034061</v>
       </c>
       <c r="P31" t="n">
-        <v>2299.569187113524</v>
+        <v>2148.195689735623</v>
       </c>
       <c r="Q31" t="n">
-        <v>2355.522987721365</v>
+        <v>2355.522987721363</v>
       </c>
       <c r="R31" t="n">
-        <v>2352.493161060399</v>
+        <v>2355.522987721363</v>
       </c>
       <c r="S31" t="n">
-        <v>2352.493161060399</v>
+        <v>2202.44512665611</v>
       </c>
       <c r="T31" t="n">
-        <v>2113.335804739265</v>
+        <v>1963.287770334977</v>
       </c>
       <c r="U31" t="n">
-        <v>1833.204743364501</v>
+        <v>1683.156708960213</v>
       </c>
       <c r="V31" t="n">
-        <v>1551.49327597253</v>
+        <v>1401.445241568241</v>
       </c>
       <c r="W31" t="n">
-        <v>1276.640872145043</v>
+        <v>1401.445241568241</v>
       </c>
       <c r="X31" t="n">
-        <v>1034.076975590848</v>
+        <v>1158.881345014047</v>
       </c>
       <c r="Y31" t="n">
-        <v>807.7342072805902</v>
+        <v>932.5385767037887</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>874.3917176299698</v>
+        <v>1149.91382849397</v>
       </c>
       <c r="C32" t="n">
-        <v>874.3917176299698</v>
+        <v>1149.91382849397</v>
       </c>
       <c r="D32" t="n">
-        <v>874.3917176299698</v>
+        <v>1149.91382849397</v>
       </c>
       <c r="E32" t="n">
-        <v>874.3917176299698</v>
+        <v>1149.91382849397</v>
       </c>
       <c r="F32" t="n">
-        <v>449.26753581937</v>
+        <v>724.7896466833697</v>
       </c>
       <c r="G32" t="n">
-        <v>47.1104597544273</v>
+        <v>322.6325706184271</v>
       </c>
       <c r="H32" t="n">
-        <v>47.1104597544273</v>
+        <v>47.11045975442728</v>
       </c>
       <c r="I32" t="n">
         <v>95.35505635606114</v>
       </c>
       <c r="J32" t="n">
-        <v>247.7373121302876</v>
+        <v>247.737312130288</v>
       </c>
       <c r="K32" t="n">
         <v>484.3638217260097</v>
       </c>
       <c r="L32" t="n">
-        <v>783.9164671286935</v>
+        <v>783.9164671286934</v>
       </c>
       <c r="M32" t="n">
-        <v>1122.372786339449</v>
+        <v>1122.372786339448</v>
       </c>
       <c r="N32" t="n">
-        <v>1467.055426501782</v>
+        <v>1467.055426501781</v>
       </c>
       <c r="O32" t="n">
-        <v>1790.362489605417</v>
+        <v>1790.362489605416</v>
       </c>
       <c r="P32" t="n">
-        <v>2060.691175351524</v>
+        <v>2060.691175351523</v>
       </c>
       <c r="Q32" t="n">
-        <v>2255.868688910538</v>
+        <v>2255.868688910537</v>
       </c>
       <c r="R32" t="n">
-        <v>2355.522987721365</v>
+        <v>2355.522987721364</v>
       </c>
       <c r="S32" t="n">
-        <v>2322.671276526327</v>
+        <v>2300.877707445064</v>
       </c>
       <c r="T32" t="n">
-        <v>2111.297350798862</v>
+        <v>2089.503781717599</v>
       </c>
       <c r="U32" t="n">
-        <v>2111.297350798862</v>
+        <v>1903.794593067373</v>
       </c>
       <c r="V32" t="n">
-        <v>2111.297350798862</v>
+        <v>1546.305178193623</v>
       </c>
       <c r="W32" t="n">
-        <v>2111.297350798862</v>
+        <v>1149.91382849397</v>
       </c>
       <c r="X32" t="n">
-        <v>1699.57735196661</v>
+        <v>1149.91382849397</v>
       </c>
       <c r="Y32" t="n">
-        <v>1294.2400819215</v>
+        <v>1149.91382849397</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>601.7912251119909</v>
+        <v>601.7912251119908</v>
       </c>
       <c r="C33" t="n">
-        <v>484.2853216294957</v>
+        <v>484.2853216294956</v>
       </c>
       <c r="D33" t="n">
-        <v>380.4453631447807</v>
+        <v>380.4453631447806</v>
       </c>
       <c r="E33" t="n">
-        <v>275.7434294177179</v>
+        <v>275.7434294177178</v>
       </c>
       <c r="F33" t="n">
         <v>182.097599100622</v>
       </c>
       <c r="G33" t="n">
-        <v>89.21129293701094</v>
+        <v>89.21129293701091</v>
       </c>
       <c r="H33" t="n">
-        <v>47.1104597544273</v>
+        <v>47.11045975442728</v>
       </c>
       <c r="I33" t="n">
-        <v>70.49554014308069</v>
+        <v>93.95284598749248</v>
       </c>
       <c r="J33" t="n">
-        <v>267.2225335910535</v>
+        <v>181.6527734731504</v>
       </c>
       <c r="K33" t="n">
-        <v>429.8158373207738</v>
+        <v>344.2460772028705</v>
       </c>
       <c r="L33" t="n">
-        <v>655.9700123830429</v>
+        <v>570.4002522651397</v>
       </c>
       <c r="M33" t="n">
-        <v>923.0267587553961</v>
+        <v>837.4569986374928</v>
       </c>
       <c r="N33" t="n">
-        <v>1199.493107350885</v>
+        <v>1113.923347232981</v>
       </c>
       <c r="O33" t="n">
-        <v>1448.795087510631</v>
+        <v>1363.225327392727</v>
       </c>
       <c r="P33" t="n">
-        <v>1645.740282175108</v>
+        <v>1560.170522057205</v>
       </c>
       <c r="Q33" t="n">
-        <v>1769.281059767574</v>
+        <v>1683.71129964967</v>
       </c>
       <c r="R33" t="n">
         <v>1816.887690172014</v>
@@ -6821,10 +6821,10 @@
         <v>1033.888469412098</v>
       </c>
       <c r="X33" t="n">
-        <v>870.4111231787613</v>
+        <v>870.4111231787612</v>
       </c>
       <c r="Y33" t="n">
-        <v>730.7182345320537</v>
+        <v>730.7182345320535</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>747.651265539002</v>
+        <v>617.5682385685236</v>
       </c>
       <c r="C34" t="n">
-        <v>575.678702417918</v>
+        <v>617.5682385685236</v>
       </c>
       <c r="D34" t="n">
-        <v>550.4586455757038</v>
+        <v>454.2514656952943</v>
       </c>
       <c r="E34" t="n">
-        <v>384.2504397285574</v>
+        <v>288.0432598481478</v>
       </c>
       <c r="F34" t="n">
-        <v>212.3886655031178</v>
+        <v>116.1814856227083</v>
       </c>
       <c r="G34" t="n">
-        <v>47.1104597544273</v>
+        <v>116.1814856227083</v>
       </c>
       <c r="H34" t="n">
-        <v>47.1104597544273</v>
+        <v>47.11045975442728</v>
       </c>
       <c r="I34" t="n">
-        <v>47.1104597544273</v>
+        <v>47.11045975442728</v>
       </c>
       <c r="J34" t="n">
-        <v>94.50163072160291</v>
+        <v>94.50163072160285</v>
       </c>
       <c r="K34" t="n">
-        <v>185.1982788530255</v>
+        <v>252.309276192959</v>
       </c>
       <c r="L34" t="n">
-        <v>648.8390698663904</v>
+        <v>749.6183457559041</v>
       </c>
       <c r="M34" t="n">
-        <v>1190.397392621536</v>
+        <v>877.6411880482276</v>
       </c>
       <c r="N34" t="n">
-        <v>1714.685908670867</v>
+        <v>1401.929704097559</v>
       </c>
       <c r="O34" t="n">
-        <v>2205.704831411962</v>
+        <v>1892.948626838653</v>
       </c>
       <c r="P34" t="n">
-        <v>2299.569187113524</v>
+        <v>2299.569187113523</v>
       </c>
       <c r="Q34" t="n">
-        <v>2355.522987721365</v>
+        <v>2355.522987721364</v>
       </c>
       <c r="R34" t="n">
-        <v>2355.522987721365</v>
+        <v>2352.493161060398</v>
       </c>
       <c r="S34" t="n">
-        <v>2202.445126656112</v>
+        <v>2352.493161060398</v>
       </c>
       <c r="T34" t="n">
-        <v>1963.287770334979</v>
+        <v>2113.335804739264</v>
       </c>
       <c r="U34" t="n">
-        <v>1963.287770334979</v>
+        <v>1833.2047433645</v>
       </c>
       <c r="V34" t="n">
-        <v>1681.576302943007</v>
+        <v>1551.493275972529</v>
       </c>
       <c r="W34" t="n">
-        <v>1406.72389911552</v>
+        <v>1276.640872145042</v>
       </c>
       <c r="X34" t="n">
-        <v>1164.160002561326</v>
+        <v>1034.076975590847</v>
       </c>
       <c r="Y34" t="n">
-        <v>937.8172342510677</v>
+        <v>807.7342072805893</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>518.5657482668338</v>
+        <v>1748.404932218869</v>
       </c>
       <c r="C35" t="n">
-        <v>518.5657482668338</v>
+        <v>1321.504202232169</v>
       </c>
       <c r="D35" t="n">
-        <v>518.5657482668338</v>
+        <v>898.2115814171696</v>
       </c>
       <c r="E35" t="n">
-        <v>518.5657482668338</v>
+        <v>472.2346415650271</v>
       </c>
       <c r="F35" t="n">
-        <v>322.6325706184271</v>
+        <v>47.11045975442728</v>
       </c>
       <c r="G35" t="n">
-        <v>322.6325706184271</v>
+        <v>47.11045975442728</v>
       </c>
       <c r="H35" t="n">
-        <v>47.1104597544273</v>
+        <v>47.11045975442728</v>
       </c>
       <c r="I35" t="n">
-        <v>95.35505635606148</v>
+        <v>95.35505635606114</v>
       </c>
       <c r="J35" t="n">
-        <v>247.7373121302879</v>
+        <v>247.7373121302876</v>
       </c>
       <c r="K35" t="n">
-        <v>484.3638217260099</v>
+        <v>484.3638217260095</v>
       </c>
       <c r="L35" t="n">
-        <v>783.9164671286936</v>
+        <v>783.9164671286932</v>
       </c>
       <c r="M35" t="n">
-        <v>1122.372786339449</v>
+        <v>1122.372786339448</v>
       </c>
       <c r="N35" t="n">
-        <v>1467.055426501782</v>
+        <v>1467.055426501781</v>
       </c>
       <c r="O35" t="n">
         <v>1790.362489605416</v>
       </c>
       <c r="P35" t="n">
-        <v>2060.691175351524</v>
+        <v>2060.691175351523</v>
       </c>
       <c r="Q35" t="n">
-        <v>2255.868688910538</v>
+        <v>2255.868688910537</v>
       </c>
       <c r="R35" t="n">
-        <v>2355.522987721365</v>
+        <v>2355.522987721364</v>
       </c>
       <c r="S35" t="n">
-        <v>2300.877707445065</v>
+        <v>2300.877707445064</v>
       </c>
       <c r="T35" t="n">
-        <v>2089.5037817176</v>
+        <v>2300.877707445064</v>
       </c>
       <c r="U35" t="n">
-        <v>2089.5037817176</v>
+        <v>2300.877707445064</v>
       </c>
       <c r="V35" t="n">
-        <v>1732.014366843849</v>
+        <v>2300.877707445064</v>
       </c>
       <c r="W35" t="n">
-        <v>1335.623017144196</v>
+        <v>2300.877707445064</v>
       </c>
       <c r="X35" t="n">
-        <v>923.9030183119435</v>
+        <v>2300.877707445064</v>
       </c>
       <c r="Y35" t="n">
-        <v>518.5657482668338</v>
+        <v>2168.253296510399</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>601.7912251119909</v>
+        <v>601.7912251119908</v>
       </c>
       <c r="C36" t="n">
-        <v>484.2853216294957</v>
+        <v>484.2853216294956</v>
       </c>
       <c r="D36" t="n">
-        <v>380.4453631447807</v>
+        <v>380.4453631447806</v>
       </c>
       <c r="E36" t="n">
-        <v>275.7434294177179</v>
+        <v>275.7434294177178</v>
       </c>
       <c r="F36" t="n">
         <v>182.097599100622</v>
       </c>
       <c r="G36" t="n">
-        <v>89.21129293701094</v>
+        <v>89.21129293701091</v>
       </c>
       <c r="H36" t="n">
-        <v>47.1104597544273</v>
+        <v>47.11045975442728</v>
       </c>
       <c r="I36" t="n">
-        <v>70.49554014308069</v>
+        <v>93.95284598749248</v>
       </c>
       <c r="J36" t="n">
-        <v>267.2225335910535</v>
+        <v>181.6527734731504</v>
       </c>
       <c r="K36" t="n">
-        <v>429.8158373207738</v>
+        <v>344.2460772028705</v>
       </c>
       <c r="L36" t="n">
-        <v>655.9700123830429</v>
+        <v>570.4002522651397</v>
       </c>
       <c r="M36" t="n">
-        <v>923.0267587553961</v>
+        <v>837.4569986374928</v>
       </c>
       <c r="N36" t="n">
-        <v>1199.493107350885</v>
+        <v>1113.923347232981</v>
       </c>
       <c r="O36" t="n">
-        <v>1448.795087510631</v>
+        <v>1363.225327392727</v>
       </c>
       <c r="P36" t="n">
-        <v>1645.740282175108</v>
+        <v>1560.170522057205</v>
       </c>
       <c r="Q36" t="n">
-        <v>1769.281059767574</v>
+        <v>1769.281059767573</v>
       </c>
       <c r="R36" t="n">
         <v>1816.887690172014</v>
@@ -7058,10 +7058,10 @@
         <v>1033.888469412098</v>
       </c>
       <c r="X36" t="n">
-        <v>870.4111231787613</v>
+        <v>870.4111231787612</v>
       </c>
       <c r="Y36" t="n">
-        <v>730.7182345320537</v>
+        <v>730.7182345320535</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>719.5397757228707</v>
+        <v>713.8862073445775</v>
       </c>
       <c r="C37" t="n">
-        <v>547.5672126017867</v>
+        <v>541.9136442234935</v>
       </c>
       <c r="D37" t="n">
-        <v>384.2504397285574</v>
+        <v>378.5968713502642</v>
       </c>
       <c r="E37" t="n">
-        <v>384.2504397285574</v>
+        <v>212.3886655031178</v>
       </c>
       <c r="F37" t="n">
         <v>212.3886655031178</v>
       </c>
       <c r="G37" t="n">
-        <v>47.1104597544273</v>
+        <v>47.11045975442728</v>
       </c>
       <c r="H37" t="n">
-        <v>47.1104597544273</v>
+        <v>47.11045975442728</v>
       </c>
       <c r="I37" t="n">
-        <v>47.1104597544273</v>
+        <v>47.11045975442728</v>
       </c>
       <c r="J37" t="n">
-        <v>123.8428575398394</v>
+        <v>172.4233473698237</v>
       </c>
       <c r="K37" t="n">
-        <v>461.822114785284</v>
+        <v>263.1199955012463</v>
       </c>
       <c r="L37" t="n">
-        <v>582.7422907570642</v>
+        <v>384.0401714730264</v>
       </c>
       <c r="M37" t="n">
-        <v>1124.30061351221</v>
+        <v>925.5984942281716</v>
       </c>
       <c r="N37" t="n">
-        <v>1250.556206719661</v>
+        <v>1449.887010277503</v>
       </c>
       <c r="O37" t="n">
-        <v>1741.575129460755</v>
+        <v>1940.905933018597</v>
       </c>
       <c r="P37" t="n">
-        <v>2148.195689735625</v>
+        <v>2148.195689735624</v>
       </c>
       <c r="Q37" t="n">
-        <v>2355.522987721365</v>
+        <v>2355.522987721364</v>
       </c>
       <c r="R37" t="n">
-        <v>2355.522987721365</v>
+        <v>2355.522987721364</v>
       </c>
       <c r="S37" t="n">
-        <v>2202.445126656112</v>
+        <v>2222.468361526193</v>
       </c>
       <c r="T37" t="n">
-        <v>2202.445126656112</v>
+        <v>1983.31100520506</v>
       </c>
       <c r="U37" t="n">
-        <v>1935.176280518847</v>
+        <v>1703.179943830296</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.464813126876</v>
+        <v>1421.468476438325</v>
       </c>
       <c r="W37" t="n">
-        <v>1378.612409299389</v>
+        <v>1146.616072610838</v>
       </c>
       <c r="X37" t="n">
-        <v>1136.048512745194</v>
+        <v>904.0521760566432</v>
       </c>
       <c r="Y37" t="n">
-        <v>909.7057444349364</v>
+        <v>904.0521760566432</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1175.510240457269</v>
+        <v>895.5272623800267</v>
       </c>
       <c r="C38" t="n">
-        <v>748.6095104705696</v>
+        <v>895.5272623800267</v>
       </c>
       <c r="D38" t="n">
-        <v>748.6095104705696</v>
+        <v>472.2346415650271</v>
       </c>
       <c r="E38" t="n">
-        <v>322.6325706184271</v>
+        <v>472.2346415650271</v>
       </c>
       <c r="F38" t="n">
-        <v>322.6325706184271</v>
+        <v>47.11045975442728</v>
       </c>
       <c r="G38" t="n">
-        <v>322.6325706184271</v>
+        <v>47.11045975442728</v>
       </c>
       <c r="H38" t="n">
-        <v>47.1104597544273</v>
+        <v>47.11045975442728</v>
       </c>
       <c r="I38" t="n">
         <v>95.35505635606114</v>
@@ -7177,49 +7177,49 @@
         <v>247.7373121302876</v>
       </c>
       <c r="K38" t="n">
-        <v>484.3638217260097</v>
+        <v>484.3638217260095</v>
       </c>
       <c r="L38" t="n">
-        <v>783.9164671286935</v>
+        <v>783.9164671286932</v>
       </c>
       <c r="M38" t="n">
-        <v>1122.372786339449</v>
+        <v>1122.372786339448</v>
       </c>
       <c r="N38" t="n">
-        <v>1467.055426501782</v>
+        <v>1467.055426501781</v>
       </c>
       <c r="O38" t="n">
-        <v>1790.362489605417</v>
+        <v>1790.362489605416</v>
       </c>
       <c r="P38" t="n">
-        <v>2060.691175351524</v>
+        <v>2060.691175351523</v>
       </c>
       <c r="Q38" t="n">
-        <v>2255.868688910538</v>
+        <v>2255.868688910537</v>
       </c>
       <c r="R38" t="n">
-        <v>2355.522987721365</v>
+        <v>2355.522987721364</v>
       </c>
       <c r="S38" t="n">
-        <v>2300.877707445065</v>
+        <v>2300.877707445064</v>
       </c>
       <c r="T38" t="n">
-        <v>2089.5037817176</v>
+        <v>2300.877707445064</v>
       </c>
       <c r="U38" t="n">
-        <v>1831.323431221661</v>
+        <v>2300.877707445064</v>
       </c>
       <c r="V38" t="n">
-        <v>1831.323431221661</v>
+        <v>2300.877707445064</v>
       </c>
       <c r="W38" t="n">
-        <v>1580.847510502379</v>
+        <v>2132.432895548919</v>
       </c>
       <c r="X38" t="n">
-        <v>1580.847510502379</v>
+        <v>1720.712896716666</v>
       </c>
       <c r="Y38" t="n">
-        <v>1175.510240457269</v>
+        <v>1315.375626671557</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>601.7912251119909</v>
+        <v>601.7912251119908</v>
       </c>
       <c r="C39" t="n">
-        <v>484.2853216294957</v>
+        <v>484.2853216294956</v>
       </c>
       <c r="D39" t="n">
-        <v>380.4453631447807</v>
+        <v>380.4453631447806</v>
       </c>
       <c r="E39" t="n">
-        <v>275.7434294177179</v>
+        <v>275.7434294177178</v>
       </c>
       <c r="F39" t="n">
         <v>182.097599100622</v>
       </c>
       <c r="G39" t="n">
-        <v>89.21129293701094</v>
+        <v>89.21129293701091</v>
       </c>
       <c r="H39" t="n">
-        <v>47.1104597544273</v>
+        <v>47.11045975442728</v>
       </c>
       <c r="I39" t="n">
-        <v>70.49554014308069</v>
+        <v>93.95284598749248</v>
       </c>
       <c r="J39" t="n">
-        <v>267.2225335910535</v>
+        <v>267.2225335910539</v>
       </c>
       <c r="K39" t="n">
-        <v>429.8158373207738</v>
+        <v>429.8158373207741</v>
       </c>
       <c r="L39" t="n">
-        <v>655.9700123830429</v>
+        <v>655.9700123830431</v>
       </c>
       <c r="M39" t="n">
-        <v>923.0267587553961</v>
+        <v>923.0267587553963</v>
       </c>
       <c r="N39" t="n">
         <v>1199.493107350885</v>
@@ -7274,7 +7274,7 @@
         <v>1645.740282175108</v>
       </c>
       <c r="Q39" t="n">
-        <v>1769.281059767574</v>
+        <v>1769.281059767573</v>
       </c>
       <c r="R39" t="n">
         <v>1816.887690172014</v>
@@ -7295,10 +7295,10 @@
         <v>1033.888469412098</v>
       </c>
       <c r="X39" t="n">
-        <v>870.4111231787613</v>
+        <v>870.4111231787612</v>
       </c>
       <c r="Y39" t="n">
-        <v>730.7182345320537</v>
+        <v>730.7182345320535</v>
       </c>
     </row>
     <row r="40">
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>925.8984096635003</v>
+        <v>753.9258465424163</v>
       </c>
       <c r="C40" t="n">
         <v>753.9258465424163</v>
@@ -7326,58 +7326,58 @@
         <v>252.5390935966009</v>
       </c>
       <c r="H40" t="n">
-        <v>117.4449264685886</v>
+        <v>117.4449264685885</v>
       </c>
       <c r="I40" t="n">
-        <v>47.1104597544273</v>
+        <v>47.11045975442728</v>
       </c>
       <c r="J40" t="n">
-        <v>94.50163072160291</v>
+        <v>94.50163072160285</v>
       </c>
       <c r="K40" t="n">
-        <v>185.1982788530255</v>
+        <v>252.309276192959</v>
       </c>
       <c r="L40" t="n">
-        <v>648.8390698663904</v>
+        <v>749.6183457559041</v>
       </c>
       <c r="M40" t="n">
-        <v>1190.397392621536</v>
+        <v>877.6411880482276</v>
       </c>
       <c r="N40" t="n">
-        <v>1714.685908670867</v>
+        <v>1401.929704097559</v>
       </c>
       <c r="O40" t="n">
-        <v>2205.704831411962</v>
+        <v>1892.948626838653</v>
       </c>
       <c r="P40" t="n">
-        <v>2299.569187113524</v>
+        <v>2299.569187113523</v>
       </c>
       <c r="Q40" t="n">
-        <v>2355.522987721365</v>
+        <v>2355.522987721364</v>
       </c>
       <c r="R40" t="n">
-        <v>2355.522987721365</v>
+        <v>2355.522987721364</v>
       </c>
       <c r="S40" t="n">
-        <v>2355.522987721365</v>
+        <v>2355.522987721364</v>
       </c>
       <c r="T40" t="n">
-        <v>2141.534914459477</v>
+        <v>2116.365631400231</v>
       </c>
       <c r="U40" t="n">
-        <v>2141.534914459477</v>
+        <v>1969.562351338393</v>
       </c>
       <c r="V40" t="n">
-        <v>1859.823447067506</v>
+        <v>1687.850883946422</v>
       </c>
       <c r="W40" t="n">
-        <v>1584.971043240019</v>
+        <v>1412.998480118935</v>
       </c>
       <c r="X40" t="n">
-        <v>1342.407146685824</v>
+        <v>1170.43458356474</v>
       </c>
       <c r="Y40" t="n">
-        <v>1116.064378375566</v>
+        <v>944.0918152544818</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>472.2346415650271</v>
+        <v>1748.404932218869</v>
       </c>
       <c r="C41" t="n">
-        <v>472.2346415650271</v>
+        <v>1321.504202232169</v>
       </c>
       <c r="D41" t="n">
-        <v>472.2346415650271</v>
+        <v>898.2115814171696</v>
       </c>
       <c r="E41" t="n">
         <v>472.2346415650271</v>
       </c>
       <c r="F41" t="n">
-        <v>47.1104597544273</v>
+        <v>47.11045975442728</v>
       </c>
       <c r="G41" t="n">
-        <v>47.1104597544273</v>
+        <v>47.11045975442728</v>
       </c>
       <c r="H41" t="n">
-        <v>47.1104597544273</v>
+        <v>47.11045975442728</v>
       </c>
       <c r="I41" t="n">
         <v>95.35505635606114</v>
       </c>
       <c r="J41" t="n">
-        <v>247.7373121302876</v>
+        <v>247.737312130288</v>
       </c>
       <c r="K41" t="n">
-        <v>484.3638217260097</v>
+        <v>484.36382172601</v>
       </c>
       <c r="L41" t="n">
-        <v>783.9164671286935</v>
+        <v>783.9164671286936</v>
       </c>
       <c r="M41" t="n">
-        <v>1122.372786339449</v>
+        <v>1122.372786339448</v>
       </c>
       <c r="N41" t="n">
-        <v>1467.055426501782</v>
+        <v>1467.055426501781</v>
       </c>
       <c r="O41" t="n">
-        <v>1790.362489605417</v>
+        <v>1790.362489605416</v>
       </c>
       <c r="P41" t="n">
-        <v>2060.691175351524</v>
+        <v>2060.691175351523</v>
       </c>
       <c r="Q41" t="n">
-        <v>2255.868688910538</v>
+        <v>2255.868688910537</v>
       </c>
       <c r="R41" t="n">
-        <v>2355.522987721365</v>
+        <v>2355.522987721364</v>
       </c>
       <c r="S41" t="n">
-        <v>2355.522987721365</v>
+        <v>2300.877707445064</v>
       </c>
       <c r="T41" t="n">
-        <v>2315.864119758153</v>
+        <v>2300.877707445064</v>
       </c>
       <c r="U41" t="n">
-        <v>2057.683769262214</v>
+        <v>2300.877707445064</v>
       </c>
       <c r="V41" t="n">
-        <v>1700.194354388463</v>
+        <v>2300.877707445064</v>
       </c>
       <c r="W41" t="n">
-        <v>1303.80300468881</v>
+        <v>2300.877707445064</v>
       </c>
       <c r="X41" t="n">
-        <v>892.0830058565572</v>
+        <v>2168.253296510399</v>
       </c>
       <c r="Y41" t="n">
-        <v>892.0830058565572</v>
+        <v>2168.253296510399</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>601.7912251119909</v>
+        <v>601.7912251119908</v>
       </c>
       <c r="C42" t="n">
-        <v>484.2853216294957</v>
+        <v>484.2853216294956</v>
       </c>
       <c r="D42" t="n">
-        <v>380.4453631447807</v>
+        <v>380.4453631447806</v>
       </c>
       <c r="E42" t="n">
-        <v>275.7434294177179</v>
+        <v>275.7434294177178</v>
       </c>
       <c r="F42" t="n">
         <v>182.097599100622</v>
       </c>
       <c r="G42" t="n">
-        <v>89.21129293701094</v>
+        <v>89.21129293701091</v>
       </c>
       <c r="H42" t="n">
-        <v>47.1104597544273</v>
+        <v>47.11045975442728</v>
       </c>
       <c r="I42" t="n">
-        <v>70.49554014308069</v>
+        <v>74.06710582049013</v>
       </c>
       <c r="J42" t="n">
-        <v>267.2225335910535</v>
+        <v>161.7670333061481</v>
       </c>
       <c r="K42" t="n">
-        <v>429.8158373207738</v>
+        <v>324.3603370358682</v>
       </c>
       <c r="L42" t="n">
-        <v>655.9700123830429</v>
+        <v>550.5145120981373</v>
       </c>
       <c r="M42" t="n">
-        <v>923.0267587553961</v>
+        <v>817.5712584704904</v>
       </c>
       <c r="N42" t="n">
-        <v>1199.493107350885</v>
+        <v>1094.037607065979</v>
       </c>
       <c r="O42" t="n">
-        <v>1448.795087510631</v>
+        <v>1343.339587225725</v>
       </c>
       <c r="P42" t="n">
-        <v>1645.740282175108</v>
+        <v>1540.284781890203</v>
       </c>
       <c r="Q42" t="n">
-        <v>1769.281059767574</v>
+        <v>1663.825559482668</v>
       </c>
       <c r="R42" t="n">
         <v>1816.887690172014</v>
@@ -7532,10 +7532,10 @@
         <v>1033.888469412098</v>
       </c>
       <c r="X42" t="n">
-        <v>870.4111231787613</v>
+        <v>870.4111231787612</v>
       </c>
       <c r="Y42" t="n">
-        <v>730.7182345320537</v>
+        <v>730.7182345320535</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>706.677560485371</v>
+        <v>626.5574695638027</v>
       </c>
       <c r="C43" t="n">
-        <v>534.704997364287</v>
+        <v>454.5849064427186</v>
       </c>
       <c r="D43" t="n">
-        <v>371.3882244910577</v>
+        <v>454.5849064427186</v>
       </c>
       <c r="E43" t="n">
-        <v>371.3882244910577</v>
+        <v>454.5849064427186</v>
       </c>
       <c r="F43" t="n">
-        <v>371.3882244910577</v>
+        <v>282.723132217279</v>
       </c>
       <c r="G43" t="n">
-        <v>252.5390935966009</v>
+        <v>117.4449264685885</v>
       </c>
       <c r="H43" t="n">
-        <v>117.4449264685886</v>
+        <v>117.4449264685885</v>
       </c>
       <c r="I43" t="n">
-        <v>47.1104597544273</v>
+        <v>47.11045975442728</v>
       </c>
       <c r="J43" t="n">
-        <v>125.156288251878</v>
+        <v>94.50163072160285</v>
       </c>
       <c r="K43" t="n">
-        <v>463.1355454973227</v>
+        <v>185.1982788530254</v>
       </c>
       <c r="L43" t="n">
-        <v>960.4446150602678</v>
+        <v>306.1184548248055</v>
       </c>
       <c r="M43" t="n">
-        <v>1502.002937815413</v>
+        <v>847.6767775799508</v>
       </c>
       <c r="N43" t="n">
-        <v>1628.258531022864</v>
+        <v>1371.965293629282</v>
       </c>
       <c r="O43" t="n">
         <v>1741.575129460755</v>
       </c>
       <c r="P43" t="n">
-        <v>2148.195689735625</v>
+        <v>2148.195689735624</v>
       </c>
       <c r="Q43" t="n">
-        <v>2355.522987721365</v>
+        <v>2355.522987721364</v>
       </c>
       <c r="R43" t="n">
-        <v>2355.522987721365</v>
+        <v>2355.522987721364</v>
       </c>
       <c r="S43" t="n">
-        <v>2202.445126656112</v>
+        <v>2355.522987721364</v>
       </c>
       <c r="T43" t="n">
-        <v>2202.445126656112</v>
+        <v>2116.365631400231</v>
       </c>
       <c r="U43" t="n">
-        <v>1922.314065281348</v>
+        <v>1842.193974359779</v>
       </c>
       <c r="V43" t="n">
-        <v>1640.602597889377</v>
+        <v>1560.482506967808</v>
       </c>
       <c r="W43" t="n">
-        <v>1365.750194061889</v>
+        <v>1285.630103140321</v>
       </c>
       <c r="X43" t="n">
-        <v>1123.186297507695</v>
+        <v>1043.066206586126</v>
       </c>
       <c r="Y43" t="n">
-        <v>896.8435291974367</v>
+        <v>816.7234382758684</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>899.1353715517271</v>
+        <v>1748.404932218869</v>
       </c>
       <c r="C44" t="n">
-        <v>472.2346415650271</v>
+        <v>1321.504202232169</v>
       </c>
       <c r="D44" t="n">
-        <v>472.2346415650271</v>
+        <v>898.2115814171696</v>
       </c>
       <c r="E44" t="n">
         <v>472.2346415650271</v>
       </c>
       <c r="F44" t="n">
-        <v>47.11045975442731</v>
+        <v>47.1104597544273</v>
       </c>
       <c r="G44" t="n">
-        <v>47.11045975442731</v>
+        <v>47.1104597544273</v>
       </c>
       <c r="H44" t="n">
-        <v>47.11045975442731</v>
+        <v>47.1104597544273</v>
       </c>
       <c r="I44" t="n">
-        <v>95.35505635606148</v>
+        <v>95.35505635606137</v>
       </c>
       <c r="J44" t="n">
-        <v>247.7373121302879</v>
+        <v>247.7373121302877</v>
       </c>
       <c r="K44" t="n">
-        <v>484.36382172601</v>
+        <v>484.3638217260096</v>
       </c>
       <c r="L44" t="n">
-        <v>783.9164671286937</v>
+        <v>783.9164671286933</v>
       </c>
       <c r="M44" t="n">
-        <v>1122.372786339449</v>
+        <v>1122.372786339448</v>
       </c>
       <c r="N44" t="n">
         <v>1467.055426501782</v>
       </c>
       <c r="O44" t="n">
-        <v>1790.362489605417</v>
+        <v>1790.362489605416</v>
       </c>
       <c r="P44" t="n">
-        <v>2060.691175351524</v>
+        <v>2060.691175351523</v>
       </c>
       <c r="Q44" t="n">
-        <v>2255.868688910538</v>
+        <v>2255.868688910537</v>
       </c>
       <c r="R44" t="n">
-        <v>2355.522987721366</v>
+        <v>2355.522987721365</v>
       </c>
       <c r="S44" t="n">
-        <v>2355.522987721366</v>
+        <v>2355.522987721365</v>
       </c>
       <c r="T44" t="n">
-        <v>2355.522987721366</v>
+        <v>2355.522987721365</v>
       </c>
       <c r="U44" t="n">
-        <v>2355.522987721366</v>
+        <v>2168.253296510399</v>
       </c>
       <c r="V44" t="n">
-        <v>2355.522987721366</v>
+        <v>2168.253296510399</v>
       </c>
       <c r="W44" t="n">
-        <v>2136.04100472062</v>
+        <v>2168.253296510399</v>
       </c>
       <c r="X44" t="n">
-        <v>1724.321005888367</v>
+        <v>2168.253296510399</v>
       </c>
       <c r="Y44" t="n">
-        <v>1318.983735843257</v>
+        <v>2168.253296510399</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>601.7912251119909</v>
+        <v>601.7912251119908</v>
       </c>
       <c r="C45" t="n">
-        <v>484.2853216294957</v>
+        <v>484.2853216294956</v>
       </c>
       <c r="D45" t="n">
-        <v>380.4453631447807</v>
+        <v>380.4453631447806</v>
       </c>
       <c r="E45" t="n">
-        <v>275.7434294177179</v>
+        <v>275.7434294177178</v>
       </c>
       <c r="F45" t="n">
         <v>182.097599100622</v>
       </c>
       <c r="G45" t="n">
-        <v>89.21129293701094</v>
+        <v>89.21129293701092</v>
       </c>
       <c r="H45" t="n">
-        <v>47.11045975442731</v>
+        <v>47.1104597544273</v>
       </c>
       <c r="I45" t="n">
-        <v>70.4955401430807</v>
+        <v>93.95284598749251</v>
       </c>
       <c r="J45" t="n">
-        <v>267.2225335910533</v>
+        <v>181.6527734731504</v>
       </c>
       <c r="K45" t="n">
-        <v>429.8158373207735</v>
+        <v>344.2460772028707</v>
       </c>
       <c r="L45" t="n">
-        <v>655.9700123830428</v>
+        <v>570.4002522651398</v>
       </c>
       <c r="M45" t="n">
-        <v>923.026758755396</v>
+        <v>837.4569986374929</v>
       </c>
       <c r="N45" t="n">
-        <v>1199.493107350885</v>
+        <v>1113.923347232981</v>
       </c>
       <c r="O45" t="n">
-        <v>1448.795087510631</v>
+        <v>1363.225327392727</v>
       </c>
       <c r="P45" t="n">
-        <v>1645.740282175108</v>
+        <v>1560.170522057205</v>
       </c>
       <c r="Q45" t="n">
-        <v>1769.281059767574</v>
+        <v>1683.71129964967</v>
       </c>
       <c r="R45" t="n">
         <v>1816.887690172014</v>
@@ -7769,10 +7769,10 @@
         <v>1033.888469412098</v>
       </c>
       <c r="X45" t="n">
-        <v>870.4111231787613</v>
+        <v>870.4111231787612</v>
       </c>
       <c r="Y45" t="n">
-        <v>730.7182345320537</v>
+        <v>730.7182345320535</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>710.0841007184331</v>
+        <v>464.4903775032707</v>
       </c>
       <c r="C46" t="n">
-        <v>538.1115375973491</v>
+        <v>292.5178143821868</v>
       </c>
       <c r="D46" t="n">
-        <v>538.1115375973491</v>
+        <v>292.5178143821868</v>
       </c>
       <c r="E46" t="n">
-        <v>519.3446068565698</v>
+        <v>292.5178143821868</v>
       </c>
       <c r="F46" t="n">
-        <v>347.4828326311302</v>
+        <v>120.6560401567472</v>
       </c>
       <c r="G46" t="n">
-        <v>182.2046268824397</v>
+        <v>47.1104597544273</v>
       </c>
       <c r="H46" t="n">
-        <v>47.11045975442731</v>
+        <v>47.1104597544273</v>
       </c>
       <c r="I46" t="n">
-        <v>47.11045975442731</v>
+        <v>47.1104597544273</v>
       </c>
       <c r="J46" t="n">
-        <v>125.1562882518778</v>
+        <v>94.50163072160288</v>
       </c>
       <c r="K46" t="n">
-        <v>463.1355454973224</v>
+        <v>185.1982788530254</v>
       </c>
       <c r="L46" t="n">
-        <v>960.4446150602676</v>
+        <v>336.0828652930826</v>
       </c>
       <c r="M46" t="n">
-        <v>1502.002937815413</v>
+        <v>877.6411880482278</v>
       </c>
       <c r="N46" t="n">
-        <v>1628.258531022864</v>
+        <v>1401.929704097559</v>
       </c>
       <c r="O46" t="n">
-        <v>1741.575129460755</v>
+        <v>1892.948626838654</v>
       </c>
       <c r="P46" t="n">
-        <v>2148.195689735625</v>
+        <v>2299.569187113523</v>
       </c>
       <c r="Q46" t="n">
-        <v>2355.522987721366</v>
+        <v>2355.522987721365</v>
       </c>
       <c r="R46" t="n">
-        <v>2355.522987721366</v>
+        <v>2352.493161060398</v>
       </c>
       <c r="S46" t="n">
-        <v>2202.445126656112</v>
+        <v>2199.415299995145</v>
       </c>
       <c r="T46" t="n">
-        <v>1963.287770334979</v>
+        <v>1960.257943674012</v>
       </c>
       <c r="U46" t="n">
-        <v>1683.156708960215</v>
+        <v>1680.126882299247</v>
       </c>
       <c r="V46" t="n">
-        <v>1401.445241568244</v>
+        <v>1398.415414907276</v>
       </c>
       <c r="W46" t="n">
-        <v>1126.592837740757</v>
+        <v>1123.563011079789</v>
       </c>
       <c r="X46" t="n">
-        <v>1126.592837740757</v>
+        <v>880.9991145255943</v>
       </c>
       <c r="Y46" t="n">
-        <v>900.2500694304988</v>
+        <v>654.6563462153364</v>
       </c>
     </row>
   </sheetData>
@@ -8218,13 +8218,13 @@
         <v>14.96006091008002</v>
       </c>
       <c r="K5" t="n">
-        <v>14.09296117214527</v>
+        <v>14.09296117214526</v>
       </c>
       <c r="L5" t="n">
         <v>11.42645714324615</v>
       </c>
       <c r="M5" t="n">
-        <v>7.515868967310215</v>
+        <v>7.515868967310212</v>
       </c>
       <c r="N5" t="n">
         <v>6.880166552921242</v>
@@ -8236,7 +8236,7 @@
         <v>13.07601436734049</v>
       </c>
       <c r="Q5" t="n">
-        <v>17.72668497534604</v>
+        <v>17.72668497534603</v>
       </c>
       <c r="R5" t="n">
         <v>24.33067662398352</v>
@@ -8297,7 +8297,7 @@
         <v>11.9988978019839</v>
       </c>
       <c r="K6" t="n">
-        <v>7.679584047590231</v>
+        <v>7.679584047590229</v>
       </c>
       <c r="L6" t="n">
         <v>2.722701059689193</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.483625009529547</v>
+        <v>1.483625009529543</v>
       </c>
       <c r="P6" t="n">
         <v>4.364096701700124</v>
@@ -8388,7 +8388,7 @@
         <v>9.054267004656879</v>
       </c>
       <c r="O7" t="n">
-        <v>11.69730019489985</v>
+        <v>11.69730019489984</v>
       </c>
       <c r="P7" t="n">
         <v>13.13791998612571</v>
@@ -8458,19 +8458,19 @@
         <v>14.09296117214526</v>
       </c>
       <c r="L8" t="n">
-        <v>11.42645714324614</v>
+        <v>11.42645714324615</v>
       </c>
       <c r="M8" t="n">
-        <v>7.515868967310208</v>
+        <v>7.515868967310212</v>
       </c>
       <c r="N8" t="n">
-        <v>6.880166552921239</v>
+        <v>6.880166552921242</v>
       </c>
       <c r="O8" t="n">
-        <v>8.685614816471276</v>
+        <v>8.685614816471279</v>
       </c>
       <c r="P8" t="n">
-        <v>13.07601436734048</v>
+        <v>13.07601436734049</v>
       </c>
       <c r="Q8" t="n">
         <v>17.72668497534603</v>
@@ -8534,10 +8534,10 @@
         <v>11.9988978019839</v>
       </c>
       <c r="K9" t="n">
-        <v>7.679584047590227</v>
+        <v>7.679584047590229</v>
       </c>
       <c r="L9" t="n">
-        <v>2.722701059689189</v>
+        <v>2.722701059689193</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>1.483625009529543</v>
       </c>
       <c r="P9" t="n">
-        <v>4.36409670170012</v>
+        <v>4.364096701700124</v>
       </c>
       <c r="Q9" t="n">
         <v>11.11109056471342</v>
@@ -8622,7 +8622,7 @@
         <v>10.59596068035418</v>
       </c>
       <c r="N10" t="n">
-        <v>9.054267004656877</v>
+        <v>9.054267004656879</v>
       </c>
       <c r="O10" t="n">
         <v>11.69730019489984</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>90.61817583365236</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>176.8960973939097</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>298.504485226012</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>203.861065919338</v>
+        <v>117.7883381567394</v>
       </c>
       <c r="M13" t="n">
-        <v>354.4082905479649</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>366.2873004017982</v>
       </c>
       <c r="P13" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9014,19 +9014,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>242.0634916556459</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>7.360890261672523</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>123.3649210763296</v>
+        <v>358.0675224703017</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>129.6673480105726</v>
       </c>
       <c r="M16" t="n">
-        <v>354.4082905479649</v>
+        <v>354.408290547965</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>366.2873004017981</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.35417876402674</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>70.37539003541897</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.37539003541804</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>249.7804132464869</v>
@@ -9336,13 +9336,13 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>45.34488222711981</v>
+        <v>276.9562095262307</v>
       </c>
       <c r="P19" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,25 +9558,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>360.0219516362448</v>
+        <v>126.5047566361197</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>354.4082905479649</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>355.4735849779359</v>
       </c>
       <c r="O22" t="n">
-        <v>198.2474048310581</v>
+        <v>366.2873004017981</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>110.1283494568839</v>
+        <v>110.1283494568842</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9801,13 +9801,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>346.1824394359439</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N25" t="n">
-        <v>402.0534574160406</v>
+        <v>368.0450952447472</v>
       </c>
       <c r="O25" t="n">
         <v>381.5174992961649</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>3.60764209839337</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>86.43410112919551</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>346.1824394359448</v>
+        <v>369.2708831140179</v>
       </c>
       <c r="M28" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
@@ -10050,7 +10050,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3.607642098393427</v>
       </c>
       <c r="J30" t="n">
-        <v>110.1283494568837</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,13 +10272,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>230.8017217528704</v>
       </c>
       <c r="L31" t="n">
-        <v>346.1824394359442</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>110.1283494568837</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>86.43410112919551</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,13 +10509,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>67.78888620195316</v>
       </c>
       <c r="L34" t="n">
-        <v>346.1824394359442</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
@@ -10524,7 +10524,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>110.1283494568837</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>86.43410112919543</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>29.6376028467035</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -10755,13 +10755,13 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>114.5711121368332</v>
       </c>
       <c r="Q37" t="n">
         <v>152.9025226039384</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>110.1283494568837</v>
+        <v>86.43410112919543</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10983,13 +10983,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>67.78888620195316</v>
       </c>
       <c r="L40" t="n">
-        <v>346.1824394359442</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>402.0534574160406</v>
@@ -10998,7 +10998,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>3.607642098393413</v>
       </c>
       <c r="J42" t="n">
-        <v>110.1283494568837</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,22 +11217,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>30.96430053563139</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>258.8820579733145</v>
       </c>
       <c r="P43" t="n">
         <v>315.9153581548562</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>110.1283494568834</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>86.43410112919504</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>30.96430053563114</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>380.1908016072373</v>
+        <v>30.26708128108788</v>
       </c>
       <c r="M46" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>234.1205739081338</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>398.5660300744983</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>211.1448086517629</v>
@@ -23317,16 +23317,16 @@
         <v>255.632988972596</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>384.4949599523537</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,10 +23427,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>135.4602252892499</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>50.45271865996372</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>85.40527917459829</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>173.3265131122087</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.90941067458683</v>
+        <v>63.90941067458682</v>
       </c>
       <c r="T14" t="n">
-        <v>109.0372615245577</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U14" t="n">
         <v>255.632988972596</v>
@@ -23557,7 +23557,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H16" t="n">
-        <v>121.0999500568958</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I16" t="n">
         <v>75.43872475250879</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.68284247578064</v>
+        <v>11.68284247578063</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>237.5909258267186</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>46.22905807856216</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -23743,13 +23743,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>326.6644793643538</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>157.5504735117778</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S19" t="n">
-        <v>27.05377925592194</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>94.11475890349644</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>340.1745919256026</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H20" t="n">
-        <v>157.5504735117777</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>63.90941067458683</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>31.30712131621596</v>
+        <v>105.5395452923744</v>
       </c>
       <c r="H22" t="n">
         <v>135.4602252892499</v>
@@ -24177,10 +24177,10 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S22" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.1355053042932</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>272.7668897553598</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>54.0988274735376</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.26018647019</v>
+        <v>52.15740757942086</v>
       </c>
       <c r="U23" t="n">
-        <v>255.5985469909796</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>215.8869030458032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24372,19 +24372,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>152.3388655803927</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>100.8148120326247</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>133.7432254567322</v>
       </c>
       <c r="I25" t="n">
-        <v>69.63112204701963</v>
+        <v>69.63112204701964</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>2.999528394357036</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>151.5470824546008</v>
       </c>
       <c r="T25" t="n">
-        <v>236.7657827579218</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24445,22 +24445,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>204.6914292007525</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>272.7668897553598</v>
+        <v>52.15740757942081</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>54.0988274735376</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.26018647019</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.5985469909796</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>65.47259085382116</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.6254236912036</v>
+        <v>121.0469617191171</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>69.63112204701963</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>2.999528394357036</v>
       </c>
       <c r="S28" t="n">
-        <v>151.5470824546008</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>54.09882747353759</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.26018647019</v>
       </c>
       <c r="U29" t="n">
-        <v>255.5985469909796</v>
+        <v>83.30213845751331</v>
       </c>
       <c r="V29" t="n">
-        <v>168.5175264261568</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.360487444108543</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>13.48920571858085</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>163.6254236912036</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>133.7432254567322</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>2.999528394357036</v>
       </c>
       <c r="S31" t="n">
-        <v>151.5470824546008</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>272.7668897553598</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>21.57563339044977</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.5985469909796</v>
+        <v>71.7464502272561</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>136.715748870705</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.6254236912036</v>
       </c>
       <c r="H34" t="n">
-        <v>133.7432254567322</v>
+        <v>65.36290984713406</v>
       </c>
       <c r="I34" t="n">
-        <v>69.63112204701963</v>
+        <v>69.63112204701964</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>2.999528394357014</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>151.5470824546008</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3297507610166</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>226.8990941205711</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>398.1355053042932</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>272.7668897553598</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.26018647019</v>
       </c>
       <c r="U35" t="n">
         <v>255.5985469909796</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>269.9857305193408</v>
       </c>
     </row>
     <row r="36">
@@ -25320,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>133.7432254567322</v>
       </c>
       <c r="I37" t="n">
-        <v>69.63112204701963</v>
+        <v>69.63112204701964</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>2.999528394357014</v>
+        <v>2.999528394357036</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>19.82300252138171</v>
       </c>
       <c r="T37" t="n">
-        <v>236.7657827579218</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>12.73359308512471</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>398.1355053042932</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>272.7668897553598</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.26018647019</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.5985469909796</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>144.4562746905675</v>
+        <v>225.6670724254735</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>2.999528394357014</v>
+        <v>2.999528394357036</v>
       </c>
       <c r="S40" t="n">
         <v>151.5470824546008</v>
       </c>
       <c r="T40" t="n">
-        <v>24.91759022865216</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3297507610166</v>
+        <v>131.9945034997967</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>54.09882747353759</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>169.9979071866098</v>
+        <v>209.26018647019</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.5985469909796</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>276.3046320186124</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>45.96478410569139</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.7432254567322</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>2.999528394357014</v>
+        <v>2.999528394357036</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>151.5470824546008</v>
       </c>
       <c r="T43" t="n">
-        <v>236.7657827579218</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>5.899810290969413</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25870,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>54.09882747353758</v>
+        <v>54.0988274735376</v>
       </c>
       <c r="T44" t="n">
         <v>209.26018647019</v>
       </c>
       <c r="U44" t="n">
-        <v>255.5985469909796</v>
+        <v>70.20155269212381</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>175.1402730319181</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26031,16 +26031,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>145.9668623553035</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>90.8152990929069</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>133.7432254567322</v>
       </c>
       <c r="I46" t="n">
         <v>69.63112204701963</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>2.999528394357007</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>413516.9845315546</v>
+        <v>413516.9845315547</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>413516.9845315547</v>
+        <v>413516.9845315546</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>413516.9845315546</v>
+        <v>413516.9845315547</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>484438.8677695908</v>
+        <v>484438.8677695909</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>484438.867769591</v>
+        <v>484438.8677695908</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>484438.8677695909</v>
+        <v>484438.8677695906</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>484438.8677695909</v>
+        <v>484438.8677695908</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>484438.867769591</v>
+        <v>484438.8677695909</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>484438.8677695909</v>
+        <v>484438.8677695908</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>484438.867769591</v>
+        <v>484438.8677695909</v>
       </c>
     </row>
     <row r="16">
@@ -26316,7 +26316,7 @@
         <v>18226.65431595902</v>
       </c>
       <c r="C2" t="n">
-        <v>18288.12053458567</v>
+        <v>18288.12053458568</v>
       </c>
       <c r="D2" t="n">
         <v>18288.12053458568</v>
@@ -26325,10 +26325,10 @@
         <v>138392.3543887654</v>
       </c>
       <c r="F2" t="n">
-        <v>138392.3543887653</v>
+        <v>138392.3543887654</v>
       </c>
       <c r="G2" t="n">
-        <v>138392.3543887654</v>
+        <v>138392.3543887652</v>
       </c>
       <c r="H2" t="n">
         <v>138392.3543887654</v>
@@ -26337,7 +26337,7 @@
         <v>163710.5177067438</v>
       </c>
       <c r="J2" t="n">
-        <v>163710.5177067439</v>
+        <v>163710.5177067438</v>
       </c>
       <c r="K2" t="n">
         <v>163710.5177067438</v>
@@ -26346,16 +26346,16 @@
         <v>163710.5177067438</v>
       </c>
       <c r="M2" t="n">
+        <v>163710.5177067439</v>
+      </c>
+      <c r="N2" t="n">
         <v>163710.5177067438</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>163710.5177067439</v>
       </c>
-      <c r="O2" t="n">
-        <v>163710.5177067438</v>
-      </c>
       <c r="P2" t="n">
-        <v>163710.5177067438</v>
+        <v>163710.5177067439</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36763.52824278933</v>
+        <v>36763.52824278935</v>
       </c>
       <c r="C3" t="n">
         <v>3849.713455507073</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>447005.9016701139</v>
+        <v>447005.901670114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>116627.5038067863</v>
+        <v>116627.5038067862</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>4728.209364371914</v>
       </c>
       <c r="C4" t="n">
-        <v>4083.012747213918</v>
+        <v>4083.012747213917</v>
       </c>
       <c r="D4" t="n">
         <v>4083.012747213917</v>
       </c>
       <c r="E4" t="n">
-        <v>14110.06128541146</v>
+        <v>14110.06128541147</v>
       </c>
       <c r="F4" t="n">
-        <v>14110.06128541146</v>
+        <v>14110.06128541145</v>
       </c>
       <c r="G4" t="n">
         <v>14110.06128541146</v>
@@ -26438,7 +26438,7 @@
         <v>14110.06128541145</v>
       </c>
       <c r="I4" t="n">
-        <v>11973.41776697762</v>
+        <v>11973.41776697763</v>
       </c>
       <c r="J4" t="n">
         <v>11973.41776697763</v>
@@ -26447,7 +26447,7 @@
         <v>11973.41776697762</v>
       </c>
       <c r="L4" t="n">
-        <v>11973.41776697762</v>
+        <v>11973.41776697763</v>
       </c>
       <c r="M4" t="n">
         <v>11973.41776697763</v>
@@ -26478,10 +26478,10 @@
         <v>34551.47122049312</v>
       </c>
       <c r="E5" t="n">
-        <v>36949.30081304155</v>
+        <v>36949.30081304156</v>
       </c>
       <c r="F5" t="n">
-        <v>36949.30081304155</v>
+        <v>36949.30081304156</v>
       </c>
       <c r="G5" t="n">
         <v>36949.30081304155</v>
@@ -26490,28 +26490,28 @@
         <v>36949.30081304155</v>
       </c>
       <c r="I5" t="n">
+        <v>47517.99220445798</v>
+      </c>
+      <c r="J5" t="n">
+        <v>47517.99220445798</v>
+      </c>
+      <c r="K5" t="n">
+        <v>47517.99220445797</v>
+      </c>
+      <c r="L5" t="n">
+        <v>47517.99220445798</v>
+      </c>
+      <c r="M5" t="n">
+        <v>47517.99220445798</v>
+      </c>
+      <c r="N5" t="n">
+        <v>47517.99220445798</v>
+      </c>
+      <c r="O5" t="n">
+        <v>47517.99220445798</v>
+      </c>
+      <c r="P5" t="n">
         <v>47517.99220445799</v>
-      </c>
-      <c r="J5" t="n">
-        <v>47517.992204458</v>
-      </c>
-      <c r="K5" t="n">
-        <v>47517.992204458</v>
-      </c>
-      <c r="L5" t="n">
-        <v>47517.992204458</v>
-      </c>
-      <c r="M5" t="n">
-        <v>47517.992204458</v>
-      </c>
-      <c r="N5" t="n">
-        <v>47517.992204458</v>
-      </c>
-      <c r="O5" t="n">
-        <v>47517.992204458</v>
-      </c>
-      <c r="P5" t="n">
-        <v>47517.99220445801</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-57724.39157626355</v>
+        <v>-59079.23905564727</v>
       </c>
       <c r="C6" t="n">
-        <v>-24196.07688862844</v>
+        <v>-25550.58288901976</v>
       </c>
       <c r="D6" t="n">
-        <v>-20346.36343312136</v>
+        <v>-21700.86943351268</v>
       </c>
       <c r="E6" t="n">
-        <v>-359672.9093798015</v>
+        <v>-360360.1696365586</v>
       </c>
       <c r="F6" t="n">
-        <v>87332.99229031228</v>
+        <v>86645.73203355538</v>
       </c>
       <c r="G6" t="n">
-        <v>87332.99229031242</v>
+        <v>86645.73203355521</v>
       </c>
       <c r="H6" t="n">
-        <v>87332.99229031244</v>
+        <v>86645.73203355545</v>
       </c>
       <c r="I6" t="n">
-        <v>-12408.39607147811</v>
+        <v>-12954.99986535735</v>
       </c>
       <c r="J6" t="n">
-        <v>104219.1077353083</v>
+        <v>103672.5039414289</v>
       </c>
       <c r="K6" t="n">
-        <v>104219.1077353082</v>
+        <v>103672.5039414289</v>
       </c>
       <c r="L6" t="n">
-        <v>104219.1077353082</v>
+        <v>103672.5039414289</v>
       </c>
       <c r="M6" t="n">
-        <v>-8782.963407187708</v>
+        <v>-9329.5672010669</v>
       </c>
       <c r="N6" t="n">
-        <v>104219.1077353083</v>
+        <v>103672.5039414289</v>
       </c>
       <c r="O6" t="n">
-        <v>104219.1077353082</v>
+        <v>103672.5039414289</v>
       </c>
       <c r="P6" t="n">
-        <v>104219.1077353082</v>
+        <v>103672.503941429</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>42.37941378408804</v>
       </c>
       <c r="E3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="F3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="G3" t="n">
         <v>430.248375846946</v>
@@ -26758,28 +26758,28 @@
         <v>430.2483758469461</v>
       </c>
       <c r="I3" t="n">
+        <v>537.3414124354701</v>
+      </c>
+      <c r="J3" t="n">
+        <v>537.3414124354701</v>
+      </c>
+      <c r="K3" t="n">
+        <v>537.3414124354701</v>
+      </c>
+      <c r="L3" t="n">
+        <v>537.3414124354701</v>
+      </c>
+      <c r="M3" t="n">
+        <v>537.3414124354701</v>
+      </c>
+      <c r="N3" t="n">
+        <v>537.3414124354701</v>
+      </c>
+      <c r="O3" t="n">
+        <v>537.3414124354701</v>
+      </c>
+      <c r="P3" t="n">
         <v>537.3414124354703</v>
-      </c>
-      <c r="J3" t="n">
-        <v>537.3414124354703</v>
-      </c>
-      <c r="K3" t="n">
-        <v>537.3414124354704</v>
-      </c>
-      <c r="L3" t="n">
-        <v>537.3414124354704</v>
-      </c>
-      <c r="M3" t="n">
-        <v>537.3414124354704</v>
-      </c>
-      <c r="N3" t="n">
-        <v>537.3414124354704</v>
-      </c>
-      <c r="O3" t="n">
-        <v>537.3414124354704</v>
-      </c>
-      <c r="P3" t="n">
-        <v>537.3414124354705</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="F4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="G4" t="n">
         <v>453.4520759799035</v>
@@ -26813,25 +26813,25 @@
         <v>588.880746930341</v>
       </c>
       <c r="J4" t="n">
-        <v>588.8807469303413</v>
+        <v>588.880746930341</v>
       </c>
       <c r="K4" t="n">
-        <v>588.8807469303413</v>
+        <v>588.8807469303408</v>
       </c>
       <c r="L4" t="n">
-        <v>588.8807469303413</v>
+        <v>588.880746930341</v>
       </c>
       <c r="M4" t="n">
-        <v>588.8807469303413</v>
+        <v>588.880746930341</v>
       </c>
       <c r="N4" t="n">
-        <v>588.8807469303413</v>
+        <v>588.880746930341</v>
       </c>
       <c r="O4" t="n">
-        <v>588.8807469303413</v>
+        <v>588.880746930341</v>
       </c>
       <c r="P4" t="n">
-        <v>588.8807469303414</v>
+        <v>588.8807469303412</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>387.868962062858</v>
+        <v>387.8689620628581</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>107.0930365885242</v>
+        <v>107.0930365885241</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -31284,13 +31284,13 @@
         <v>1.744796669010217</v>
       </c>
       <c r="I5" t="n">
-        <v>6.568170250898711</v>
+        <v>6.568170250898712</v>
       </c>
       <c r="J5" t="n">
         <v>14.4598985755065</v>
       </c>
       <c r="K5" t="n">
-        <v>21.67163962266407</v>
+        <v>21.67163962266408</v>
       </c>
       <c r="L5" t="n">
         <v>26.88558528937678</v>
@@ -31314,7 +31314,7 @@
         <v>10.70197327081295</v>
       </c>
       <c r="S5" t="n">
-        <v>3.882295041627764</v>
+        <v>3.882295041627765</v>
       </c>
       <c r="T5" t="n">
         <v>0.7457924978486244</v>
@@ -31360,7 +31360,7 @@
         <v>0.09115572021483087</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8803723504958667</v>
+        <v>0.8803723504958668</v>
       </c>
       <c r="I6" t="n">
         <v>3.138475454765011</v>
@@ -31381,7 +31381,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>21.68826471269267</v>
+        <v>21.68826471269268</v>
       </c>
       <c r="P6" t="n">
         <v>17.40674450312854</v>
@@ -31396,10 +31396,10 @@
         <v>1.693177522411441</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3674215213922348</v>
+        <v>0.3674215213922349</v>
       </c>
       <c r="U6" t="n">
-        <v>0.005997086856238875</v>
+        <v>0.005997086856238876</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31463,13 +31463,13 @@
         <v>10.80188730352461</v>
       </c>
       <c r="P7" t="n">
-        <v>9.242880671860769</v>
+        <v>9.242880671860771</v>
       </c>
       <c r="Q7" t="n">
         <v>6.399291481397293</v>
       </c>
       <c r="R7" t="n">
-        <v>3.436206238952448</v>
+        <v>3.436206238952449</v>
       </c>
       <c r="S7" t="n">
         <v>1.331825184001586</v>
@@ -31524,7 +31524,7 @@
         <v>6.568170250898712</v>
       </c>
       <c r="J8" t="n">
-        <v>14.45989857550651</v>
+        <v>14.4598985755065</v>
       </c>
       <c r="K8" t="n">
         <v>21.67163962266408</v>
@@ -31533,7 +31533,7 @@
         <v>26.88558528937678</v>
       </c>
       <c r="M8" t="n">
-        <v>29.91539393212161</v>
+        <v>29.9153939321216</v>
       </c>
       <c r="N8" t="n">
         <v>30.39945628152478</v>
@@ -31542,7 +31542,7 @@
         <v>28.70534453955282</v>
       </c>
       <c r="P8" t="n">
-        <v>24.49934744289082</v>
+        <v>24.49934744289081</v>
       </c>
       <c r="Q8" t="n">
         <v>18.39798962925201</v>
@@ -31554,7 +31554,7 @@
         <v>3.882295041627765</v>
       </c>
       <c r="T8" t="n">
-        <v>0.7457924978486246</v>
+        <v>0.7457924978486244</v>
       </c>
       <c r="U8" t="n">
         <v>0.013629560211968</v>
@@ -31594,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09115572021483088</v>
+        <v>0.09115572021483087</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8803723504958669</v>
+        <v>0.8803723504958668</v>
       </c>
       <c r="I9" t="n">
         <v>3.138475454765011</v>
       </c>
       <c r="J9" t="n">
-        <v>8.612216531349441</v>
+        <v>8.612216531349439</v>
       </c>
       <c r="K9" t="n">
         <v>14.71964978574311</v>
       </c>
       <c r="L9" t="n">
-        <v>19.79238565454037</v>
+        <v>19.79238565454036</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -31627,7 +31627,7 @@
         <v>11.63594772426508</v>
       </c>
       <c r="R9" t="n">
-        <v>5.659650769127836</v>
+        <v>5.659650769127835</v>
       </c>
       <c r="S9" t="n">
         <v>1.693177522411441</v>
@@ -31636,7 +31636,7 @@
         <v>0.3674215213922349</v>
       </c>
       <c r="U9" t="n">
-        <v>0.005997086856238877</v>
+        <v>0.005997086856238876</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07642189370901122</v>
+        <v>0.0764218937090112</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6794601095219366</v>
+        <v>0.6794601095219365</v>
       </c>
       <c r="I10" t="n">
         <v>2.298214767176447</v>
       </c>
       <c r="J10" t="n">
-        <v>5.403027885227093</v>
+        <v>5.403027885227092</v>
       </c>
       <c r="K10" t="n">
-        <v>8.878834560010574</v>
+        <v>8.878834560010572</v>
       </c>
       <c r="L10" t="n">
         <v>11.36185136106518</v>
@@ -31694,7 +31694,7 @@
         <v>11.97947921113164</v>
       </c>
       <c r="N10" t="n">
-        <v>11.69463397094352</v>
+        <v>11.69463397094351</v>
       </c>
       <c r="O10" t="n">
         <v>10.80188730352461</v>
@@ -31703,7 +31703,7 @@
         <v>9.242880671860771</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.399291481397294</v>
+        <v>6.399291481397293</v>
       </c>
       <c r="R10" t="n">
         <v>3.436206238952449</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H11" t="n">
         <v>17.71369318248255</v>
       </c>
       <c r="I11" t="n">
-        <v>66.68201209985685</v>
+        <v>66.68201209985686</v>
       </c>
       <c r="J11" t="n">
         <v>146.801178249406</v>
@@ -31773,25 +31773,25 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N11" t="n">
-        <v>308.6242947670762</v>
+        <v>308.6242947670763</v>
       </c>
       <c r="O11" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P11" t="n">
         <v>248.7246402301936</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7818464210729</v>
+        <v>186.781846421073</v>
       </c>
       <c r="R11" t="n">
-        <v>108.6496061881235</v>
+        <v>108.6496061881236</v>
       </c>
       <c r="S11" t="n">
-        <v>39.41421051100416</v>
+        <v>39.41421051100417</v>
       </c>
       <c r="T11" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050277</v>
       </c>
       <c r="U11" t="n">
         <v>0.1383713369558016</v>
@@ -31831,28 +31831,28 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651294</v>
       </c>
       <c r="H12" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179016</v>
       </c>
       <c r="I12" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J12" t="n">
-        <v>87.43377607659497</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K12" t="n">
-        <v>149.4382495618586</v>
+        <v>149.4382495618587</v>
       </c>
       <c r="L12" t="n">
         <v>200.9381683613497</v>
       </c>
       <c r="M12" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N12" t="n">
-        <v>240.6914947108307</v>
+        <v>240.6914947108308</v>
       </c>
       <c r="O12" t="n">
         <v>220.1856947600876</v>
@@ -31864,16 +31864,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R12" t="n">
-        <v>57.45845291027708</v>
+        <v>57.4584529102771</v>
       </c>
       <c r="S12" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T12" t="n">
-        <v>3.730172239654182</v>
+        <v>3.730172239654183</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928486</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,22 +31910,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H13" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677272</v>
       </c>
       <c r="I13" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J13" t="n">
-        <v>54.85314129445408</v>
+        <v>54.85314129445409</v>
       </c>
       <c r="K13" t="n">
-        <v>90.14056136596669</v>
+        <v>90.14056136596672</v>
       </c>
       <c r="L13" t="n">
-        <v>115.3488842393599</v>
+        <v>115.34888423936</v>
       </c>
       <c r="M13" t="n">
         <v>121.6192253234244</v>
@@ -31937,22 +31937,22 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P13" t="n">
-        <v>93.83646544701257</v>
+        <v>93.8364654470126</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288887</v>
       </c>
       <c r="R13" t="n">
-        <v>34.88538470391794</v>
+        <v>34.88538470391795</v>
       </c>
       <c r="S13" t="n">
-        <v>13.521084204895</v>
+        <v>13.52108420489501</v>
       </c>
       <c r="T13" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H14" t="n">
         <v>17.71369318248255</v>
       </c>
       <c r="I14" t="n">
-        <v>66.68201209985685</v>
+        <v>66.68201209985686</v>
       </c>
       <c r="J14" t="n">
         <v>146.801178249406</v>
@@ -32010,25 +32010,25 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N14" t="n">
-        <v>308.6242947670762</v>
+        <v>308.6242947670763</v>
       </c>
       <c r="O14" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P14" t="n">
         <v>248.7246402301936</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7818464210729</v>
+        <v>186.781846421073</v>
       </c>
       <c r="R14" t="n">
-        <v>108.6496061881235</v>
+        <v>108.6496061881236</v>
       </c>
       <c r="S14" t="n">
-        <v>39.41421051100416</v>
+        <v>39.41421051100417</v>
       </c>
       <c r="T14" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050277</v>
       </c>
       <c r="U14" t="n">
         <v>0.1383713369558016</v>
@@ -32068,28 +32068,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651294</v>
       </c>
       <c r="H15" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179016</v>
       </c>
       <c r="I15" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J15" t="n">
-        <v>87.43377607659497</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K15" t="n">
-        <v>149.4382495618586</v>
+        <v>149.4382495618587</v>
       </c>
       <c r="L15" t="n">
         <v>200.9381683613497</v>
       </c>
       <c r="M15" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N15" t="n">
-        <v>240.6914947108307</v>
+        <v>240.6914947108308</v>
       </c>
       <c r="O15" t="n">
         <v>220.1856947600876</v>
@@ -32101,16 +32101,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R15" t="n">
-        <v>57.45845291027708</v>
+        <v>57.4584529102771</v>
       </c>
       <c r="S15" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T15" t="n">
-        <v>3.730172239654182</v>
+        <v>3.730172239654183</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928486</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H16" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677272</v>
       </c>
       <c r="I16" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J16" t="n">
-        <v>54.85314129445408</v>
+        <v>54.85314129445409</v>
       </c>
       <c r="K16" t="n">
-        <v>90.14056136596669</v>
+        <v>90.14056136596672</v>
       </c>
       <c r="L16" t="n">
-        <v>115.3488842393599</v>
+        <v>115.34888423936</v>
       </c>
       <c r="M16" t="n">
         <v>121.6192253234244</v>
@@ -32174,22 +32174,22 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P16" t="n">
-        <v>93.83646544701257</v>
+        <v>93.8364654470126</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288887</v>
       </c>
       <c r="R16" t="n">
-        <v>34.88538470391794</v>
+        <v>34.88538470391795</v>
       </c>
       <c r="S16" t="n">
-        <v>13.521084204895</v>
+        <v>13.52108420489501</v>
       </c>
       <c r="T16" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.160166482152643</v>
+        <v>2.160166482152642</v>
       </c>
       <c r="H23" t="n">
-        <v>22.12280498534576</v>
+        <v>22.12280498534575</v>
       </c>
       <c r="I23" t="n">
-        <v>83.27981830318984</v>
+        <v>83.27981830318981</v>
       </c>
       <c r="J23" t="n">
         <v>183.341429964603</v>
@@ -32718,10 +32718,10 @@
         <v>340.8904721323034</v>
       </c>
       <c r="M23" t="n">
-        <v>379.3063328092855</v>
+        <v>379.3063328092854</v>
       </c>
       <c r="N23" t="n">
-        <v>385.4439058267017</v>
+        <v>385.4439058267016</v>
       </c>
       <c r="O23" t="n">
         <v>363.9637503697963</v>
@@ -32733,16 +32733,16 @@
         <v>233.2736781995613</v>
       </c>
       <c r="R23" t="n">
-        <v>135.6935577845211</v>
+        <v>135.693557784521</v>
       </c>
       <c r="S23" t="n">
-        <v>49.22479371205339</v>
+        <v>49.22479371205338</v>
       </c>
       <c r="T23" t="n">
-        <v>9.456128775623197</v>
+        <v>9.456128775623196</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1728133185722114</v>
+        <v>0.1728133185722113</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,22 +32785,22 @@
         <v>11.16250745455571</v>
       </c>
       <c r="I24" t="n">
-        <v>39.7936800718721</v>
+        <v>39.79368007187209</v>
       </c>
       <c r="J24" t="n">
-        <v>109.1968996723818</v>
+        <v>109.1968996723817</v>
       </c>
       <c r="K24" t="n">
-        <v>186.6348941663841</v>
+        <v>186.634894166384</v>
       </c>
       <c r="L24" t="n">
-        <v>250.9536473831883</v>
+        <v>250.9536473831882</v>
       </c>
       <c r="M24" t="n">
         <v>292.8510697773312</v>
       </c>
       <c r="N24" t="n">
-        <v>300.6019661887826</v>
+        <v>300.6019661887825</v>
       </c>
       <c r="O24" t="n">
         <v>274.9920717017637</v>
@@ -32809,19 +32809,19 @@
         <v>220.7053812699576</v>
       </c>
       <c r="Q24" t="n">
-        <v>147.5357025237918</v>
+        <v>147.5357025237917</v>
       </c>
       <c r="R24" t="n">
-        <v>71.76042485317471</v>
+        <v>71.7604248531747</v>
       </c>
       <c r="S24" t="n">
-        <v>21.46831020437939</v>
+        <v>21.46831020437938</v>
       </c>
       <c r="T24" t="n">
-        <v>4.658648660643368</v>
+        <v>4.658648660643367</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07603887911822696</v>
+        <v>0.07603887911822695</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9689763175065856</v>
+        <v>0.9689763175065854</v>
       </c>
       <c r="H25" t="n">
-        <v>8.615080350194923</v>
+        <v>8.615080350194921</v>
       </c>
       <c r="I25" t="n">
-        <v>29.13976053010715</v>
+        <v>29.13976053010714</v>
       </c>
       <c r="J25" t="n">
-        <v>68.50662564771559</v>
+        <v>68.50662564771558</v>
       </c>
       <c r="K25" t="n">
         <v>112.5774303430378</v>
@@ -32882,25 +32882,25 @@
         <v>148.2798032053488</v>
       </c>
       <c r="O25" t="n">
-        <v>136.9603980417491</v>
+        <v>136.960398041749</v>
       </c>
       <c r="P25" t="n">
         <v>117.1932811646146</v>
       </c>
       <c r="Q25" t="n">
-        <v>81.138553277756</v>
+        <v>81.13855327775599</v>
       </c>
       <c r="R25" t="n">
-        <v>43.56869878534156</v>
+        <v>43.56869878534155</v>
       </c>
       <c r="S25" t="n">
         <v>16.88661455145567</v>
       </c>
       <c r="T25" t="n">
-        <v>4.140171538437229</v>
+        <v>4.140171538437228</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05285325368217746</v>
+        <v>0.05285325368217745</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.160166482152643</v>
+        <v>2.160166482152642</v>
       </c>
       <c r="H26" t="n">
-        <v>22.12280498534576</v>
+        <v>22.12280498534575</v>
       </c>
       <c r="I26" t="n">
-        <v>83.27981830318984</v>
+        <v>83.27981830318981</v>
       </c>
       <c r="J26" t="n">
         <v>183.341429964603</v>
@@ -32955,10 +32955,10 @@
         <v>340.8904721323034</v>
       </c>
       <c r="M26" t="n">
-        <v>379.3063328092855</v>
+        <v>379.3063328092854</v>
       </c>
       <c r="N26" t="n">
-        <v>385.4439058267017</v>
+        <v>385.4439058267016</v>
       </c>
       <c r="O26" t="n">
         <v>363.9637503697963</v>
@@ -32970,16 +32970,16 @@
         <v>233.2736781995613</v>
       </c>
       <c r="R26" t="n">
-        <v>135.6935577845211</v>
+        <v>135.693557784521</v>
       </c>
       <c r="S26" t="n">
-        <v>49.22479371205339</v>
+        <v>49.22479371205338</v>
       </c>
       <c r="T26" t="n">
-        <v>9.456128775623197</v>
+        <v>9.456128775623196</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1728133185722114</v>
+        <v>0.1728133185722113</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,22 +33022,22 @@
         <v>11.16250745455571</v>
       </c>
       <c r="I27" t="n">
-        <v>39.7936800718721</v>
+        <v>39.79368007187209</v>
       </c>
       <c r="J27" t="n">
-        <v>109.1968996723818</v>
+        <v>109.1968996723817</v>
       </c>
       <c r="K27" t="n">
-        <v>186.6348941663841</v>
+        <v>186.634894166384</v>
       </c>
       <c r="L27" t="n">
-        <v>250.9536473831883</v>
+        <v>250.9536473831882</v>
       </c>
       <c r="M27" t="n">
         <v>292.8510697773312</v>
       </c>
       <c r="N27" t="n">
-        <v>300.6019661887826</v>
+        <v>300.6019661887825</v>
       </c>
       <c r="O27" t="n">
         <v>274.9920717017637</v>
@@ -33046,19 +33046,19 @@
         <v>220.7053812699576</v>
       </c>
       <c r="Q27" t="n">
-        <v>147.5357025237918</v>
+        <v>147.5357025237917</v>
       </c>
       <c r="R27" t="n">
-        <v>71.76042485317471</v>
+        <v>71.7604248531747</v>
       </c>
       <c r="S27" t="n">
-        <v>21.46831020437939</v>
+        <v>21.46831020437938</v>
       </c>
       <c r="T27" t="n">
-        <v>4.658648660643368</v>
+        <v>4.658648660643367</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07603887911822696</v>
+        <v>0.07603887911822695</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9689763175065856</v>
+        <v>0.9689763175065854</v>
       </c>
       <c r="H28" t="n">
-        <v>8.615080350194923</v>
+        <v>8.615080350194921</v>
       </c>
       <c r="I28" t="n">
-        <v>29.13976053010715</v>
+        <v>29.13976053010714</v>
       </c>
       <c r="J28" t="n">
-        <v>68.50662564771559</v>
+        <v>68.50662564771558</v>
       </c>
       <c r="K28" t="n">
         <v>112.5774303430378</v>
@@ -33119,25 +33119,25 @@
         <v>148.2798032053488</v>
       </c>
       <c r="O28" t="n">
-        <v>136.9603980417491</v>
+        <v>136.960398041749</v>
       </c>
       <c r="P28" t="n">
         <v>117.1932811646146</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.138553277756</v>
+        <v>81.13855327775599</v>
       </c>
       <c r="R28" t="n">
-        <v>43.56869878534156</v>
+        <v>43.56869878534155</v>
       </c>
       <c r="S28" t="n">
         <v>16.88661455145567</v>
       </c>
       <c r="T28" t="n">
-        <v>4.140171538437229</v>
+        <v>4.140171538437228</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05285325368217746</v>
+        <v>0.05285325368217745</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.160166482152643</v>
+        <v>2.160166482152642</v>
       </c>
       <c r="H29" t="n">
-        <v>22.12280498534576</v>
+        <v>22.12280498534575</v>
       </c>
       <c r="I29" t="n">
-        <v>83.27981830318986</v>
+        <v>83.27981830318981</v>
       </c>
       <c r="J29" t="n">
-        <v>183.3414299646031</v>
+        <v>183.341429964603</v>
       </c>
       <c r="K29" t="n">
-        <v>274.7812771541245</v>
+        <v>274.7812771541244</v>
       </c>
       <c r="L29" t="n">
-        <v>340.8904721323035</v>
+        <v>340.8904721323034</v>
       </c>
       <c r="M29" t="n">
-        <v>379.3063328092855</v>
+        <v>379.3063328092854</v>
       </c>
       <c r="N29" t="n">
-        <v>385.4439058267018</v>
+        <v>385.4439058267016</v>
       </c>
       <c r="O29" t="n">
-        <v>363.9637503697964</v>
+        <v>363.9637503697963</v>
       </c>
       <c r="P29" t="n">
-        <v>310.634640341653</v>
+        <v>310.6346403416529</v>
       </c>
       <c r="Q29" t="n">
-        <v>233.2736781995614</v>
+        <v>233.2736781995613</v>
       </c>
       <c r="R29" t="n">
-        <v>135.6935577845211</v>
+        <v>135.693557784521</v>
       </c>
       <c r="S29" t="n">
-        <v>49.2247937120534</v>
+        <v>49.22479371205338</v>
       </c>
       <c r="T29" t="n">
-        <v>9.456128775623199</v>
+        <v>9.456128775623196</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1728133185722114</v>
+        <v>0.1728133185722113</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,46 +33256,46 @@
         <v>1.155790962597049</v>
       </c>
       <c r="H30" t="n">
-        <v>11.16250745455572</v>
+        <v>11.16250745455571</v>
       </c>
       <c r="I30" t="n">
-        <v>39.7936800718721</v>
+        <v>39.79368007187209</v>
       </c>
       <c r="J30" t="n">
-        <v>109.1968996723818</v>
+        <v>109.1968996723817</v>
       </c>
       <c r="K30" t="n">
-        <v>186.6348941663841</v>
+        <v>186.634894166384</v>
       </c>
       <c r="L30" t="n">
-        <v>250.9536473831883</v>
+        <v>250.9536473831882</v>
       </c>
       <c r="M30" t="n">
-        <v>292.8510697773313</v>
+        <v>292.8510697773312</v>
       </c>
       <c r="N30" t="n">
-        <v>300.6019661887826</v>
+        <v>300.6019661887825</v>
       </c>
       <c r="O30" t="n">
-        <v>274.9920717017638</v>
+        <v>274.9920717017637</v>
       </c>
       <c r="P30" t="n">
-        <v>220.7053812699577</v>
+        <v>220.7053812699576</v>
       </c>
       <c r="Q30" t="n">
-        <v>147.5357025237918</v>
+        <v>147.5357025237917</v>
       </c>
       <c r="R30" t="n">
-        <v>71.76042485317474</v>
+        <v>71.7604248531747</v>
       </c>
       <c r="S30" t="n">
-        <v>21.46831020437939</v>
+        <v>21.46831020437938</v>
       </c>
       <c r="T30" t="n">
-        <v>4.658648660643369</v>
+        <v>4.658648660643367</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07603887911822697</v>
+        <v>0.07603887911822695</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,22 +33332,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9689763175065857</v>
+        <v>0.9689763175065854</v>
       </c>
       <c r="H31" t="n">
-        <v>8.615080350194924</v>
+        <v>8.615080350194921</v>
       </c>
       <c r="I31" t="n">
-        <v>29.13976053010715</v>
+        <v>29.13976053010714</v>
       </c>
       <c r="J31" t="n">
-        <v>68.50662564771561</v>
+        <v>68.50662564771558</v>
       </c>
       <c r="K31" t="n">
-        <v>112.5774303430379</v>
+        <v>112.5774303430378</v>
       </c>
       <c r="L31" t="n">
-        <v>144.0603517863883</v>
+        <v>144.0603517863882</v>
       </c>
       <c r="M31" t="n">
         <v>151.8914422069641</v>
@@ -33356,25 +33356,25 @@
         <v>148.2798032053488</v>
       </c>
       <c r="O31" t="n">
-        <v>136.9603980417491</v>
+        <v>136.960398041749</v>
       </c>
       <c r="P31" t="n">
-        <v>117.1932811646147</v>
+        <v>117.1932811646146</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.13855327775602</v>
+        <v>81.13855327775599</v>
       </c>
       <c r="R31" t="n">
-        <v>43.56869878534157</v>
+        <v>43.56869878534155</v>
       </c>
       <c r="S31" t="n">
-        <v>16.88661455145568</v>
+        <v>16.88661455145567</v>
       </c>
       <c r="T31" t="n">
-        <v>4.14017153843723</v>
+        <v>4.140171538437228</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05285325368217747</v>
+        <v>0.05285325368217745</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.160166482152643</v>
+        <v>2.160166482152642</v>
       </c>
       <c r="H32" t="n">
-        <v>22.12280498534576</v>
+        <v>22.12280498534575</v>
       </c>
       <c r="I32" t="n">
-        <v>83.27981830318986</v>
+        <v>83.27981830318981</v>
       </c>
       <c r="J32" t="n">
-        <v>183.3414299646031</v>
+        <v>183.341429964603</v>
       </c>
       <c r="K32" t="n">
-        <v>274.7812771541245</v>
+        <v>274.7812771541244</v>
       </c>
       <c r="L32" t="n">
-        <v>340.8904721323035</v>
+        <v>340.8904721323034</v>
       </c>
       <c r="M32" t="n">
-        <v>379.3063328092855</v>
+        <v>379.3063328092854</v>
       </c>
       <c r="N32" t="n">
-        <v>385.4439058267018</v>
+        <v>385.4439058267016</v>
       </c>
       <c r="O32" t="n">
-        <v>363.9637503697964</v>
+        <v>363.9637503697963</v>
       </c>
       <c r="P32" t="n">
-        <v>310.634640341653</v>
+        <v>310.6346403416529</v>
       </c>
       <c r="Q32" t="n">
-        <v>233.2736781995614</v>
+        <v>233.2736781995613</v>
       </c>
       <c r="R32" t="n">
-        <v>135.6935577845211</v>
+        <v>135.693557784521</v>
       </c>
       <c r="S32" t="n">
-        <v>49.2247937120534</v>
+        <v>49.22479371205338</v>
       </c>
       <c r="T32" t="n">
-        <v>9.456128775623199</v>
+        <v>9.456128775623196</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1728133185722114</v>
+        <v>0.1728133185722113</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,46 +33493,46 @@
         <v>1.155790962597049</v>
       </c>
       <c r="H33" t="n">
-        <v>11.16250745455572</v>
+        <v>11.16250745455571</v>
       </c>
       <c r="I33" t="n">
-        <v>39.7936800718721</v>
+        <v>39.79368007187209</v>
       </c>
       <c r="J33" t="n">
-        <v>109.1968996723818</v>
+        <v>109.1968996723817</v>
       </c>
       <c r="K33" t="n">
-        <v>186.6348941663841</v>
+        <v>186.634894166384</v>
       </c>
       <c r="L33" t="n">
-        <v>250.9536473831883</v>
+        <v>250.9536473831882</v>
       </c>
       <c r="M33" t="n">
-        <v>292.8510697773313</v>
+        <v>292.8510697773312</v>
       </c>
       <c r="N33" t="n">
-        <v>300.6019661887826</v>
+        <v>300.6019661887825</v>
       </c>
       <c r="O33" t="n">
-        <v>274.9920717017638</v>
+        <v>274.9920717017637</v>
       </c>
       <c r="P33" t="n">
-        <v>220.7053812699577</v>
+        <v>220.7053812699576</v>
       </c>
       <c r="Q33" t="n">
-        <v>147.5357025237918</v>
+        <v>147.5357025237917</v>
       </c>
       <c r="R33" t="n">
-        <v>71.76042485317474</v>
+        <v>71.7604248531747</v>
       </c>
       <c r="S33" t="n">
-        <v>21.46831020437939</v>
+        <v>21.46831020437938</v>
       </c>
       <c r="T33" t="n">
-        <v>4.658648660643369</v>
+        <v>4.658648660643367</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07603887911822697</v>
+        <v>0.07603887911822695</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,22 +33569,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9689763175065857</v>
+        <v>0.9689763175065854</v>
       </c>
       <c r="H34" t="n">
-        <v>8.615080350194924</v>
+        <v>8.615080350194921</v>
       </c>
       <c r="I34" t="n">
-        <v>29.13976053010715</v>
+        <v>29.13976053010714</v>
       </c>
       <c r="J34" t="n">
-        <v>68.50662564771561</v>
+        <v>68.50662564771558</v>
       </c>
       <c r="K34" t="n">
-        <v>112.5774303430379</v>
+        <v>112.5774303430378</v>
       </c>
       <c r="L34" t="n">
-        <v>144.0603517863883</v>
+        <v>144.0603517863882</v>
       </c>
       <c r="M34" t="n">
         <v>151.8914422069641</v>
@@ -33593,25 +33593,25 @@
         <v>148.2798032053488</v>
       </c>
       <c r="O34" t="n">
-        <v>136.9603980417491</v>
+        <v>136.960398041749</v>
       </c>
       <c r="P34" t="n">
-        <v>117.1932811646147</v>
+        <v>117.1932811646146</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.13855327775602</v>
+        <v>81.13855327775599</v>
       </c>
       <c r="R34" t="n">
-        <v>43.56869878534157</v>
+        <v>43.56869878534155</v>
       </c>
       <c r="S34" t="n">
-        <v>16.88661455145568</v>
+        <v>16.88661455145567</v>
       </c>
       <c r="T34" t="n">
-        <v>4.14017153843723</v>
+        <v>4.140171538437228</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05285325368217747</v>
+        <v>0.05285325368217745</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.160166482152643</v>
+        <v>2.160166482152642</v>
       </c>
       <c r="H35" t="n">
-        <v>22.12280498534576</v>
+        <v>22.12280498534575</v>
       </c>
       <c r="I35" t="n">
-        <v>83.27981830318986</v>
+        <v>83.27981830318981</v>
       </c>
       <c r="J35" t="n">
-        <v>183.3414299646031</v>
+        <v>183.341429964603</v>
       </c>
       <c r="K35" t="n">
-        <v>274.7812771541245</v>
+        <v>274.7812771541244</v>
       </c>
       <c r="L35" t="n">
-        <v>340.8904721323035</v>
+        <v>340.8904721323034</v>
       </c>
       <c r="M35" t="n">
-        <v>379.3063328092855</v>
+        <v>379.3063328092854</v>
       </c>
       <c r="N35" t="n">
-        <v>385.4439058267018</v>
+        <v>385.4439058267016</v>
       </c>
       <c r="O35" t="n">
-        <v>363.9637503697964</v>
+        <v>363.9637503697963</v>
       </c>
       <c r="P35" t="n">
-        <v>310.634640341653</v>
+        <v>310.6346403416529</v>
       </c>
       <c r="Q35" t="n">
-        <v>233.2736781995614</v>
+        <v>233.2736781995613</v>
       </c>
       <c r="R35" t="n">
-        <v>135.6935577845211</v>
+        <v>135.693557784521</v>
       </c>
       <c r="S35" t="n">
-        <v>49.2247937120534</v>
+        <v>49.22479371205338</v>
       </c>
       <c r="T35" t="n">
-        <v>9.456128775623199</v>
+        <v>9.456128775623196</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1728133185722114</v>
+        <v>0.1728133185722113</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,46 +33730,46 @@
         <v>1.155790962597049</v>
       </c>
       <c r="H36" t="n">
-        <v>11.16250745455572</v>
+        <v>11.16250745455571</v>
       </c>
       <c r="I36" t="n">
-        <v>39.7936800718721</v>
+        <v>39.79368007187209</v>
       </c>
       <c r="J36" t="n">
-        <v>109.1968996723818</v>
+        <v>109.1968996723817</v>
       </c>
       <c r="K36" t="n">
-        <v>186.6348941663841</v>
+        <v>186.634894166384</v>
       </c>
       <c r="L36" t="n">
-        <v>250.9536473831883</v>
+        <v>250.9536473831882</v>
       </c>
       <c r="M36" t="n">
-        <v>292.8510697773313</v>
+        <v>292.8510697773312</v>
       </c>
       <c r="N36" t="n">
-        <v>300.6019661887826</v>
+        <v>300.6019661887825</v>
       </c>
       <c r="O36" t="n">
-        <v>274.9920717017638</v>
+        <v>274.9920717017637</v>
       </c>
       <c r="P36" t="n">
-        <v>220.7053812699577</v>
+        <v>220.7053812699576</v>
       </c>
       <c r="Q36" t="n">
-        <v>147.5357025237918</v>
+        <v>147.5357025237917</v>
       </c>
       <c r="R36" t="n">
-        <v>71.76042485317474</v>
+        <v>71.7604248531747</v>
       </c>
       <c r="S36" t="n">
-        <v>21.46831020437939</v>
+        <v>21.46831020437938</v>
       </c>
       <c r="T36" t="n">
-        <v>4.658648660643369</v>
+        <v>4.658648660643367</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07603887911822697</v>
+        <v>0.07603887911822695</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,22 +33806,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9689763175065857</v>
+        <v>0.9689763175065854</v>
       </c>
       <c r="H37" t="n">
-        <v>8.615080350194924</v>
+        <v>8.615080350194921</v>
       </c>
       <c r="I37" t="n">
-        <v>29.13976053010715</v>
+        <v>29.13976053010714</v>
       </c>
       <c r="J37" t="n">
-        <v>68.50662564771561</v>
+        <v>68.50662564771558</v>
       </c>
       <c r="K37" t="n">
-        <v>112.5774303430379</v>
+        <v>112.5774303430378</v>
       </c>
       <c r="L37" t="n">
-        <v>144.0603517863883</v>
+        <v>144.0603517863882</v>
       </c>
       <c r="M37" t="n">
         <v>151.8914422069641</v>
@@ -33830,25 +33830,25 @@
         <v>148.2798032053488</v>
       </c>
       <c r="O37" t="n">
-        <v>136.9603980417491</v>
+        <v>136.960398041749</v>
       </c>
       <c r="P37" t="n">
-        <v>117.1932811646147</v>
+        <v>117.1932811646146</v>
       </c>
       <c r="Q37" t="n">
-        <v>81.13855327775602</v>
+        <v>81.13855327775599</v>
       </c>
       <c r="R37" t="n">
-        <v>43.56869878534157</v>
+        <v>43.56869878534155</v>
       </c>
       <c r="S37" t="n">
-        <v>16.88661455145568</v>
+        <v>16.88661455145567</v>
       </c>
       <c r="T37" t="n">
-        <v>4.14017153843723</v>
+        <v>4.140171538437228</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05285325368217747</v>
+        <v>0.05285325368217745</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.160166482152643</v>
+        <v>2.160166482152642</v>
       </c>
       <c r="H38" t="n">
-        <v>22.12280498534576</v>
+        <v>22.12280498534575</v>
       </c>
       <c r="I38" t="n">
-        <v>83.27981830318986</v>
+        <v>83.27981830318981</v>
       </c>
       <c r="J38" t="n">
-        <v>183.3414299646031</v>
+        <v>183.341429964603</v>
       </c>
       <c r="K38" t="n">
-        <v>274.7812771541245</v>
+        <v>274.7812771541244</v>
       </c>
       <c r="L38" t="n">
-        <v>340.8904721323035</v>
+        <v>340.8904721323034</v>
       </c>
       <c r="M38" t="n">
-        <v>379.3063328092855</v>
+        <v>379.3063328092854</v>
       </c>
       <c r="N38" t="n">
-        <v>385.4439058267018</v>
+        <v>385.4439058267016</v>
       </c>
       <c r="O38" t="n">
-        <v>363.9637503697964</v>
+        <v>363.9637503697963</v>
       </c>
       <c r="P38" t="n">
-        <v>310.634640341653</v>
+        <v>310.6346403416529</v>
       </c>
       <c r="Q38" t="n">
-        <v>233.2736781995614</v>
+        <v>233.2736781995613</v>
       </c>
       <c r="R38" t="n">
-        <v>135.6935577845211</v>
+        <v>135.693557784521</v>
       </c>
       <c r="S38" t="n">
-        <v>49.2247937120534</v>
+        <v>49.22479371205338</v>
       </c>
       <c r="T38" t="n">
-        <v>9.456128775623199</v>
+        <v>9.456128775623196</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1728133185722114</v>
+        <v>0.1728133185722113</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>1.155790962597049</v>
       </c>
       <c r="H39" t="n">
-        <v>11.16250745455572</v>
+        <v>11.16250745455571</v>
       </c>
       <c r="I39" t="n">
-        <v>39.7936800718721</v>
+        <v>39.79368007187209</v>
       </c>
       <c r="J39" t="n">
-        <v>109.1968996723818</v>
+        <v>109.1968996723817</v>
       </c>
       <c r="K39" t="n">
-        <v>186.6348941663841</v>
+        <v>186.634894166384</v>
       </c>
       <c r="L39" t="n">
-        <v>250.9536473831883</v>
+        <v>250.9536473831882</v>
       </c>
       <c r="M39" t="n">
-        <v>292.8510697773313</v>
+        <v>292.8510697773312</v>
       </c>
       <c r="N39" t="n">
-        <v>300.6019661887826</v>
+        <v>300.6019661887825</v>
       </c>
       <c r="O39" t="n">
-        <v>274.9920717017638</v>
+        <v>274.9920717017637</v>
       </c>
       <c r="P39" t="n">
-        <v>220.7053812699577</v>
+        <v>220.7053812699576</v>
       </c>
       <c r="Q39" t="n">
-        <v>147.5357025237918</v>
+        <v>147.5357025237917</v>
       </c>
       <c r="R39" t="n">
-        <v>71.76042485317474</v>
+        <v>71.7604248531747</v>
       </c>
       <c r="S39" t="n">
-        <v>21.46831020437939</v>
+        <v>21.46831020437938</v>
       </c>
       <c r="T39" t="n">
-        <v>4.658648660643369</v>
+        <v>4.658648660643367</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07603887911822697</v>
+        <v>0.07603887911822695</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9689763175065857</v>
+        <v>0.9689763175065854</v>
       </c>
       <c r="H40" t="n">
-        <v>8.615080350194924</v>
+        <v>8.615080350194921</v>
       </c>
       <c r="I40" t="n">
-        <v>29.13976053010715</v>
+        <v>29.13976053010714</v>
       </c>
       <c r="J40" t="n">
-        <v>68.50662564771561</v>
+        <v>68.50662564771558</v>
       </c>
       <c r="K40" t="n">
-        <v>112.5774303430379</v>
+        <v>112.5774303430378</v>
       </c>
       <c r="L40" t="n">
-        <v>144.0603517863883</v>
+        <v>144.0603517863882</v>
       </c>
       <c r="M40" t="n">
         <v>151.8914422069641</v>
@@ -34067,25 +34067,25 @@
         <v>148.2798032053488</v>
       </c>
       <c r="O40" t="n">
-        <v>136.9603980417491</v>
+        <v>136.960398041749</v>
       </c>
       <c r="P40" t="n">
-        <v>117.1932811646147</v>
+        <v>117.1932811646146</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.13855327775602</v>
+        <v>81.13855327775599</v>
       </c>
       <c r="R40" t="n">
-        <v>43.56869878534157</v>
+        <v>43.56869878534155</v>
       </c>
       <c r="S40" t="n">
-        <v>16.88661455145568</v>
+        <v>16.88661455145567</v>
       </c>
       <c r="T40" t="n">
-        <v>4.14017153843723</v>
+        <v>4.140171538437228</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05285325368217747</v>
+        <v>0.05285325368217745</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.160166482152643</v>
+        <v>2.160166482152642</v>
       </c>
       <c r="H41" t="n">
-        <v>22.12280498534576</v>
+        <v>22.12280498534575</v>
       </c>
       <c r="I41" t="n">
-        <v>83.27981830318986</v>
+        <v>83.27981830318981</v>
       </c>
       <c r="J41" t="n">
-        <v>183.3414299646031</v>
+        <v>183.341429964603</v>
       </c>
       <c r="K41" t="n">
-        <v>274.7812771541245</v>
+        <v>274.7812771541244</v>
       </c>
       <c r="L41" t="n">
-        <v>340.8904721323035</v>
+        <v>340.8904721323034</v>
       </c>
       <c r="M41" t="n">
-        <v>379.3063328092855</v>
+        <v>379.3063328092854</v>
       </c>
       <c r="N41" t="n">
-        <v>385.4439058267018</v>
+        <v>385.4439058267016</v>
       </c>
       <c r="O41" t="n">
-        <v>363.9637503697964</v>
+        <v>363.9637503697963</v>
       </c>
       <c r="P41" t="n">
-        <v>310.634640341653</v>
+        <v>310.6346403416529</v>
       </c>
       <c r="Q41" t="n">
-        <v>233.2736781995614</v>
+        <v>233.2736781995613</v>
       </c>
       <c r="R41" t="n">
-        <v>135.6935577845211</v>
+        <v>135.693557784521</v>
       </c>
       <c r="S41" t="n">
-        <v>49.2247937120534</v>
+        <v>49.22479371205338</v>
       </c>
       <c r="T41" t="n">
-        <v>9.456128775623199</v>
+        <v>9.456128775623196</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1728133185722114</v>
+        <v>0.1728133185722113</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.155790962597049</v>
       </c>
       <c r="H42" t="n">
-        <v>11.16250745455572</v>
+        <v>11.16250745455571</v>
       </c>
       <c r="I42" t="n">
-        <v>39.7936800718721</v>
+        <v>39.79368007187209</v>
       </c>
       <c r="J42" t="n">
-        <v>109.1968996723818</v>
+        <v>109.1968996723817</v>
       </c>
       <c r="K42" t="n">
-        <v>186.6348941663841</v>
+        <v>186.634894166384</v>
       </c>
       <c r="L42" t="n">
-        <v>250.9536473831883</v>
+        <v>250.9536473831882</v>
       </c>
       <c r="M42" t="n">
-        <v>292.8510697773313</v>
+        <v>292.8510697773312</v>
       </c>
       <c r="N42" t="n">
-        <v>300.6019661887826</v>
+        <v>300.6019661887825</v>
       </c>
       <c r="O42" t="n">
-        <v>274.9920717017638</v>
+        <v>274.9920717017637</v>
       </c>
       <c r="P42" t="n">
-        <v>220.7053812699577</v>
+        <v>220.7053812699576</v>
       </c>
       <c r="Q42" t="n">
-        <v>147.5357025237918</v>
+        <v>147.5357025237917</v>
       </c>
       <c r="R42" t="n">
-        <v>71.76042485317474</v>
+        <v>71.7604248531747</v>
       </c>
       <c r="S42" t="n">
-        <v>21.46831020437939</v>
+        <v>21.46831020437938</v>
       </c>
       <c r="T42" t="n">
-        <v>4.658648660643369</v>
+        <v>4.658648660643367</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07603887911822697</v>
+        <v>0.07603887911822695</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,22 +34280,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9689763175065857</v>
+        <v>0.9689763175065854</v>
       </c>
       <c r="H43" t="n">
-        <v>8.615080350194924</v>
+        <v>8.615080350194921</v>
       </c>
       <c r="I43" t="n">
-        <v>29.13976053010715</v>
+        <v>29.13976053010714</v>
       </c>
       <c r="J43" t="n">
-        <v>68.50662564771561</v>
+        <v>68.50662564771558</v>
       </c>
       <c r="K43" t="n">
-        <v>112.5774303430379</v>
+        <v>112.5774303430378</v>
       </c>
       <c r="L43" t="n">
-        <v>144.0603517863883</v>
+        <v>144.0603517863882</v>
       </c>
       <c r="M43" t="n">
         <v>151.8914422069641</v>
@@ -34304,25 +34304,25 @@
         <v>148.2798032053488</v>
       </c>
       <c r="O43" t="n">
-        <v>136.9603980417491</v>
+        <v>136.960398041749</v>
       </c>
       <c r="P43" t="n">
-        <v>117.1932811646147</v>
+        <v>117.1932811646146</v>
       </c>
       <c r="Q43" t="n">
-        <v>81.13855327775602</v>
+        <v>81.13855327775599</v>
       </c>
       <c r="R43" t="n">
-        <v>43.56869878534157</v>
+        <v>43.56869878534155</v>
       </c>
       <c r="S43" t="n">
-        <v>16.88661455145568</v>
+        <v>16.88661455145567</v>
       </c>
       <c r="T43" t="n">
-        <v>4.14017153843723</v>
+        <v>4.140171538437228</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05285325368217747</v>
+        <v>0.05285325368217745</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,43 +34362,43 @@
         <v>2.160166482152643</v>
       </c>
       <c r="H44" t="n">
-        <v>22.12280498534577</v>
+        <v>22.12280498534576</v>
       </c>
       <c r="I44" t="n">
-        <v>83.27981830318987</v>
+        <v>83.27981830318984</v>
       </c>
       <c r="J44" t="n">
-        <v>183.3414299646031</v>
+        <v>183.341429964603</v>
       </c>
       <c r="K44" t="n">
-        <v>274.7812771541246</v>
+        <v>274.7812771541244</v>
       </c>
       <c r="L44" t="n">
-        <v>340.8904721323036</v>
+        <v>340.8904721323034</v>
       </c>
       <c r="M44" t="n">
-        <v>379.3063328092857</v>
+        <v>379.3063328092855</v>
       </c>
       <c r="N44" t="n">
-        <v>385.4439058267019</v>
+        <v>385.4439058267017</v>
       </c>
       <c r="O44" t="n">
-        <v>363.9637503697965</v>
+        <v>363.9637503697963</v>
       </c>
       <c r="P44" t="n">
-        <v>310.6346403416531</v>
+        <v>310.6346403416529</v>
       </c>
       <c r="Q44" t="n">
-        <v>233.2736781995615</v>
+        <v>233.2736781995613</v>
       </c>
       <c r="R44" t="n">
         <v>135.6935577845211</v>
       </c>
       <c r="S44" t="n">
-        <v>49.22479371205341</v>
+        <v>49.22479371205339</v>
       </c>
       <c r="T44" t="n">
-        <v>9.456128775623203</v>
+        <v>9.456128775623197</v>
       </c>
       <c r="U44" t="n">
         <v>0.1728133185722114</v>
@@ -34438,13 +34438,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.15579096259705</v>
+        <v>1.155790962597049</v>
       </c>
       <c r="H45" t="n">
-        <v>11.16250745455572</v>
+        <v>11.16250745455571</v>
       </c>
       <c r="I45" t="n">
-        <v>39.79368007187211</v>
+        <v>39.7936800718721</v>
       </c>
       <c r="J45" t="n">
         <v>109.1968996723818</v>
@@ -34453,34 +34453,34 @@
         <v>186.6348941663841</v>
       </c>
       <c r="L45" t="n">
-        <v>250.9536473831884</v>
+        <v>250.9536473831883</v>
       </c>
       <c r="M45" t="n">
-        <v>292.8510697773314</v>
+        <v>292.8510697773312</v>
       </c>
       <c r="N45" t="n">
-        <v>300.6019661887827</v>
+        <v>300.6019661887826</v>
       </c>
       <c r="O45" t="n">
-        <v>274.9920717017638</v>
+        <v>274.9920717017637</v>
       </c>
       <c r="P45" t="n">
-        <v>220.7053812699577</v>
+        <v>220.7053812699576</v>
       </c>
       <c r="Q45" t="n">
         <v>147.5357025237918</v>
       </c>
       <c r="R45" t="n">
-        <v>71.76042485317475</v>
+        <v>71.76042485317471</v>
       </c>
       <c r="S45" t="n">
-        <v>21.4683102043794</v>
+        <v>21.46831020437939</v>
       </c>
       <c r="T45" t="n">
-        <v>4.65864866064337</v>
+        <v>4.658648660643368</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07603887911822699</v>
+        <v>0.07603887911822696</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.968976317506586</v>
+        <v>0.9689763175065856</v>
       </c>
       <c r="H46" t="n">
-        <v>8.615080350194926</v>
+        <v>8.615080350194923</v>
       </c>
       <c r="I46" t="n">
-        <v>29.13976053010716</v>
+        <v>29.13976053010715</v>
       </c>
       <c r="J46" t="n">
-        <v>68.50662564771562</v>
+        <v>68.50662564771559</v>
       </c>
       <c r="K46" t="n">
-        <v>112.5774303430379</v>
+        <v>112.5774303430378</v>
       </c>
       <c r="L46" t="n">
-        <v>144.0603517863883</v>
+        <v>144.0603517863882</v>
       </c>
       <c r="M46" t="n">
-        <v>151.8914422069642</v>
+        <v>151.8914422069641</v>
       </c>
       <c r="N46" t="n">
-        <v>148.2798032053489</v>
+        <v>148.2798032053488</v>
       </c>
       <c r="O46" t="n">
         <v>136.9603980417491</v>
       </c>
       <c r="P46" t="n">
-        <v>117.1932811646147</v>
+        <v>117.1932811646146</v>
       </c>
       <c r="Q46" t="n">
-        <v>81.13855327775605</v>
+        <v>81.138553277756</v>
       </c>
       <c r="R46" t="n">
-        <v>43.56869878534157</v>
+        <v>43.56869878534156</v>
       </c>
       <c r="S46" t="n">
-        <v>16.88661455145568</v>
+        <v>16.88661455145567</v>
       </c>
       <c r="T46" t="n">
-        <v>4.14017153843723</v>
+        <v>4.140171538437229</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05285325368217748</v>
+        <v>0.05285325368217746</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>32.13410955589335</v>
+        <v>32.13410955589336</v>
       </c>
       <c r="J11" t="n">
         <v>117.3812187638195</v>
@@ -35415,16 +35415,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L11" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M11" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N11" t="n">
-        <v>271.3446719326302</v>
+        <v>271.3446719326303</v>
       </c>
       <c r="O11" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P11" t="n">
         <v>211.1492784199623</v>
@@ -35433,7 +35433,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R11" t="n">
-        <v>73.61695629332706</v>
+        <v>73.61695629332709</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>15.69034674432572</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J12" t="n">
-        <v>157.440837576914</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K12" t="n">
-        <v>127.0390157285253</v>
+        <v>303.935113122435</v>
       </c>
       <c r="L12" t="n">
-        <v>178.4230816471201</v>
+        <v>178.4230816471202</v>
       </c>
       <c r="M12" t="n">
-        <v>211.3885843242576</v>
+        <v>211.3885843242577</v>
       </c>
       <c r="N12" t="n">
         <v>219.3484664972891</v>
       </c>
       <c r="O12" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P12" t="n">
-        <v>453.4520759799035</v>
+        <v>154.9475907538916</v>
       </c>
       <c r="Q12" t="n">
-        <v>95.38455350960186</v>
+        <v>95.3845535096019</v>
       </c>
       <c r="R12" t="n">
-        <v>140.3062408746237</v>
+        <v>33.78553351613295</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>112.9251900057248</v>
+        <v>34.21638531055223</v>
       </c>
       <c r="K13" t="n">
-        <v>318.9563201597416</v>
+        <v>318.9563201597417</v>
       </c>
       <c r="L13" t="n">
-        <v>297.2911902629967</v>
+        <v>211.2184625003981</v>
       </c>
       <c r="M13" t="n">
-        <v>453.4520759799035</v>
+        <v>99.04378543193862</v>
       </c>
       <c r="N13" t="n">
-        <v>97.97849100196758</v>
+        <v>97.97849100196763</v>
       </c>
       <c r="O13" t="n">
-        <v>87.16477557810536</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="P13" t="n">
         <v>387.3710229438823</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.3479419881039</v>
+        <v>193.2504645920424</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>32.13410955589335</v>
+        <v>32.13410955589336</v>
       </c>
       <c r="J14" t="n">
         <v>117.3812187638195</v>
@@ -35652,16 +35652,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L14" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M14" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N14" t="n">
-        <v>271.3446719326302</v>
+        <v>271.3446719326303</v>
       </c>
       <c r="O14" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P14" t="n">
         <v>211.1492784199623</v>
@@ -35670,7 +35670,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R14" t="n">
-        <v>73.61695629332706</v>
+        <v>73.61695629332709</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>39.38459507201445</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J15" t="n">
-        <v>66.82266174326163</v>
+        <v>66.82266174326165</v>
       </c>
       <c r="K15" t="n">
         <v>127.0390157285253</v>
       </c>
       <c r="L15" t="n">
-        <v>178.4230816471201</v>
+        <v>178.4230816471202</v>
       </c>
       <c r="M15" t="n">
-        <v>453.4520759799035</v>
+        <v>211.3885843242577</v>
       </c>
       <c r="N15" t="n">
         <v>219.3484664972891</v>
       </c>
       <c r="O15" t="n">
-        <v>197.0138050378653</v>
+        <v>204.3746952995379</v>
       </c>
       <c r="P15" t="n">
-        <v>154.9475907538915</v>
+        <v>154.9475907538916</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.7494745859314</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="R15" t="n">
         <v>140.3062408746237</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>112.9251900057248</v>
+        <v>34.21638531055223</v>
       </c>
       <c r="K16" t="n">
-        <v>69.17590691325469</v>
+        <v>318.9563201597417</v>
       </c>
       <c r="L16" t="n">
-        <v>93.43012434365872</v>
+        <v>223.0974723542313</v>
       </c>
       <c r="M16" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="N16" t="n">
-        <v>97.97849100196758</v>
+        <v>97.97849100196763</v>
       </c>
       <c r="O16" t="n">
-        <v>453.4520759799035</v>
+        <v>87.16477557810539</v>
       </c>
       <c r="P16" t="n">
         <v>387.3710229438823</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.7021207521306</v>
+        <v>193.2504645920424</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>361.8756844398183</v>
       </c>
       <c r="K18" t="n">
-        <v>127.0390157285253</v>
+        <v>197.4144057639442</v>
       </c>
       <c r="L18" t="n">
         <v>178.4230816471201</v>
@@ -35983,7 +35983,7 @@
         <v>154.9475907538915</v>
       </c>
       <c r="Q18" t="n">
-        <v>165.7599435450199</v>
+        <v>95.38455350960186</v>
       </c>
       <c r="R18" t="n">
         <v>140.3062408746237</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>112.9251900057248</v>
+        <v>34.21638531055221</v>
       </c>
       <c r="K19" t="n">
         <v>318.9563201597416</v>
@@ -36056,13 +36056,13 @@
         <v>97.97849100196758</v>
       </c>
       <c r="O19" t="n">
-        <v>132.5096578052252</v>
+        <v>364.1209851043361</v>
       </c>
       <c r="P19" t="n">
         <v>387.3710229438823</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.2504645920423</v>
+        <v>40.3479419881039</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>112.9251900057248</v>
+        <v>34.21638531055221</v>
       </c>
       <c r="K22" t="n">
-        <v>318.9563201597416</v>
+        <v>69.17590691325471</v>
       </c>
       <c r="L22" t="n">
+        <v>219.9348809797784</v>
+      </c>
+      <c r="M22" t="n">
         <v>453.4520759799035</v>
       </c>
-      <c r="M22" t="n">
-        <v>99.0437854319386</v>
-      </c>
       <c r="N22" t="n">
-        <v>97.9784910019676</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="O22" t="n">
-        <v>285.4121804091635</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="P22" t="n">
-        <v>387.3710229438823</v>
+        <v>71.4556647890261</v>
       </c>
       <c r="Q22" t="n">
         <v>40.34794198810391</v>
@@ -36354,22 +36354,22 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>48.73191575922634</v>
+        <v>48.73191575922631</v>
       </c>
       <c r="J23" t="n">
-        <v>153.9214704790165</v>
+        <v>153.9214704790164</v>
       </c>
       <c r="K23" t="n">
         <v>239.0166763593151</v>
       </c>
       <c r="L23" t="n">
-        <v>302.5784296996805</v>
+        <v>302.5784296996804</v>
       </c>
       <c r="M23" t="n">
-        <v>341.8750699098537</v>
+        <v>341.8750699098536</v>
       </c>
       <c r="N23" t="n">
-        <v>348.1642829922557</v>
+        <v>348.1642829922556</v>
       </c>
       <c r="O23" t="n">
         <v>326.5727910137722</v>
@@ -36378,7 +36378,7 @@
         <v>273.0592785314216</v>
       </c>
       <c r="Q23" t="n">
-        <v>197.1490035949633</v>
+        <v>197.1490035949632</v>
       </c>
       <c r="R23" t="n">
         <v>100.6609078897246</v>
@@ -36436,7 +36436,7 @@
         <v>23.62129332187209</v>
       </c>
       <c r="J24" t="n">
-        <v>198.7141347959323</v>
+        <v>198.7141347959326</v>
       </c>
       <c r="K24" t="n">
         <v>164.2356603330507</v>
@@ -36445,22 +36445,22 @@
         <v>228.4385606689587</v>
       </c>
       <c r="M24" t="n">
-        <v>269.7542892650033</v>
+        <v>269.7542892650032</v>
       </c>
       <c r="N24" t="n">
-        <v>279.2589379752409</v>
+        <v>279.2589379752408</v>
       </c>
       <c r="O24" t="n">
-        <v>251.8201819795415</v>
+        <v>251.8201819795414</v>
       </c>
       <c r="P24" t="n">
         <v>198.9345400651289</v>
       </c>
       <c r="Q24" t="n">
-        <v>124.7886642348133</v>
+        <v>124.7886642348132</v>
       </c>
       <c r="R24" t="n">
-        <v>48.08750545903057</v>
+        <v>48.08750545903055</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>47.86986966381373</v>
+        <v>47.86986966381372</v>
       </c>
       <c r="K25" t="n">
-        <v>91.61277589032584</v>
+        <v>91.61277589032581</v>
       </c>
       <c r="L25" t="n">
-        <v>468.324031326631</v>
+        <v>502.3323934979243</v>
       </c>
       <c r="M25" t="n">
         <v>547.0286088435811</v>
       </c>
       <c r="N25" t="n">
-        <v>529.5843596457889</v>
+        <v>495.5759974744956</v>
       </c>
       <c r="O25" t="n">
         <v>495.9787098394895</v>
       </c>
       <c r="P25" t="n">
-        <v>94.81248050662815</v>
+        <v>94.81248050662812</v>
       </c>
       <c r="Q25" t="n">
-        <v>56.51899051297106</v>
+        <v>56.51899051297104</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,22 +36591,22 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>48.73191575922634</v>
+        <v>48.73191575922631</v>
       </c>
       <c r="J26" t="n">
-        <v>153.9214704790165</v>
+        <v>153.9214704790164</v>
       </c>
       <c r="K26" t="n">
         <v>239.0166763593151</v>
       </c>
       <c r="L26" t="n">
-        <v>302.5784296996805</v>
+        <v>302.5784296996804</v>
       </c>
       <c r="M26" t="n">
-        <v>341.8750699098537</v>
+        <v>341.8750699098536</v>
       </c>
       <c r="N26" t="n">
-        <v>348.1642829922557</v>
+        <v>348.1642829922556</v>
       </c>
       <c r="O26" t="n">
         <v>326.5727910137722</v>
@@ -36615,7 +36615,7 @@
         <v>273.0592785314216</v>
       </c>
       <c r="Q26" t="n">
-        <v>197.1490035949633</v>
+        <v>197.1490035949632</v>
       </c>
       <c r="R26" t="n">
         <v>100.6609078897246</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>27.22893542026546</v>
+        <v>47.31554164956081</v>
       </c>
       <c r="J27" t="n">
-        <v>88.58578533904843</v>
+        <v>88.58578533904841</v>
       </c>
       <c r="K27" t="n">
         <v>164.2356603330507</v>
@@ -36682,22 +36682,22 @@
         <v>228.4385606689587</v>
       </c>
       <c r="M27" t="n">
-        <v>269.7542892650033</v>
+        <v>269.7542892650032</v>
       </c>
       <c r="N27" t="n">
-        <v>279.2589379752409</v>
+        <v>279.2589379752408</v>
       </c>
       <c r="O27" t="n">
-        <v>251.8201819795415</v>
+        <v>251.8201819795414</v>
       </c>
       <c r="P27" t="n">
         <v>198.9345400651289</v>
       </c>
       <c r="Q27" t="n">
-        <v>124.7886642348133</v>
+        <v>124.7886642348132</v>
       </c>
       <c r="R27" t="n">
-        <v>154.6082128175213</v>
+        <v>134.5216065882261</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>47.86986966381373</v>
+        <v>126.5786743589863</v>
       </c>
       <c r="K28" t="n">
-        <v>91.61277589032584</v>
+        <v>91.61277589032581</v>
       </c>
       <c r="L28" t="n">
-        <v>468.3240313266318</v>
+        <v>491.4124750047049</v>
       </c>
       <c r="M28" t="n">
-        <v>547.0286088435811</v>
+        <v>129.3160023154783</v>
       </c>
       <c r="N28" t="n">
         <v>529.5843596457889</v>
@@ -36770,10 +36770,10 @@
         <v>495.9787098394895</v>
       </c>
       <c r="P28" t="n">
-        <v>94.81248050662815</v>
+        <v>410.7278386614843</v>
       </c>
       <c r="Q28" t="n">
-        <v>56.51899051297106</v>
+        <v>56.51899051297104</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>48.73191575922635</v>
+        <v>48.73191575922631</v>
       </c>
       <c r="J29" t="n">
-        <v>153.9214704790165</v>
+        <v>153.9214704790164</v>
       </c>
       <c r="K29" t="n">
-        <v>239.0166763593152</v>
+        <v>239.0166763593151</v>
       </c>
       <c r="L29" t="n">
-        <v>302.5784296996806</v>
+        <v>302.5784296996804</v>
       </c>
       <c r="M29" t="n">
-        <v>341.8750699098537</v>
+        <v>341.8750699098536</v>
       </c>
       <c r="N29" t="n">
-        <v>348.1642829922558</v>
+        <v>348.1642829922556</v>
       </c>
       <c r="O29" t="n">
-        <v>326.5727910137723</v>
+        <v>326.5727910137722</v>
       </c>
       <c r="P29" t="n">
-        <v>273.0592785314217</v>
+        <v>273.0592785314216</v>
       </c>
       <c r="Q29" t="n">
-        <v>197.1490035949633</v>
+        <v>197.1490035949632</v>
       </c>
       <c r="R29" t="n">
         <v>100.6609078897246</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>23.6212933218721</v>
+        <v>27.22893542026551</v>
       </c>
       <c r="J30" t="n">
-        <v>198.7141347959322</v>
+        <v>88.58578533904841</v>
       </c>
       <c r="K30" t="n">
-        <v>164.2356603330508</v>
+        <v>164.2356603330507</v>
       </c>
       <c r="L30" t="n">
-        <v>228.4385606689588</v>
+        <v>228.4385606689587</v>
       </c>
       <c r="M30" t="n">
-        <v>269.7542892650033</v>
+        <v>269.7542892650032</v>
       </c>
       <c r="N30" t="n">
-        <v>279.2589379752409</v>
+        <v>279.2589379752408</v>
       </c>
       <c r="O30" t="n">
-        <v>251.8201819795416</v>
+        <v>251.8201819795414</v>
       </c>
       <c r="P30" t="n">
-        <v>198.934540065129</v>
+        <v>198.9345400651289</v>
       </c>
       <c r="Q30" t="n">
-        <v>124.7886642348133</v>
+        <v>124.7886642348132</v>
       </c>
       <c r="R30" t="n">
-        <v>48.0875054590306</v>
+        <v>154.6082128175213</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>47.86986966381374</v>
+        <v>47.86986966381372</v>
       </c>
       <c r="K31" t="n">
-        <v>91.61277589032586</v>
+        <v>322.4144976431962</v>
       </c>
       <c r="L31" t="n">
-        <v>468.3240313266313</v>
+        <v>502.3323934979243</v>
       </c>
       <c r="M31" t="n">
-        <v>547.0286088435812</v>
+        <v>129.3160023154783</v>
       </c>
       <c r="N31" t="n">
-        <v>529.584359645789</v>
+        <v>529.5843596457889</v>
       </c>
       <c r="O31" t="n">
-        <v>495.9787098394896</v>
+        <v>495.9787098394895</v>
       </c>
       <c r="P31" t="n">
-        <v>94.81248050662818</v>
+        <v>94.81248050662812</v>
       </c>
       <c r="Q31" t="n">
-        <v>56.51899051297107</v>
+        <v>209.4215131169095</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>48.73191575922635</v>
+        <v>48.73191575922631</v>
       </c>
       <c r="J32" t="n">
-        <v>153.9214704790165</v>
+        <v>153.9214704790164</v>
       </c>
       <c r="K32" t="n">
-        <v>239.0166763593152</v>
+        <v>239.0166763593151</v>
       </c>
       <c r="L32" t="n">
-        <v>302.5784296996806</v>
+        <v>302.5784296996804</v>
       </c>
       <c r="M32" t="n">
-        <v>341.8750699098537</v>
+        <v>341.8750699098536</v>
       </c>
       <c r="N32" t="n">
-        <v>348.1642829922558</v>
+        <v>348.1642829922556</v>
       </c>
       <c r="O32" t="n">
-        <v>326.5727910137723</v>
+        <v>326.5727910137722</v>
       </c>
       <c r="P32" t="n">
-        <v>273.0592785314217</v>
+        <v>273.0592785314216</v>
       </c>
       <c r="Q32" t="n">
-        <v>197.1490035949633</v>
+        <v>197.1490035949632</v>
       </c>
       <c r="R32" t="n">
         <v>100.6609078897246</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>23.6212933218721</v>
+        <v>47.31554164956081</v>
       </c>
       <c r="J33" t="n">
-        <v>198.7141347959322</v>
+        <v>88.58578533904841</v>
       </c>
       <c r="K33" t="n">
-        <v>164.2356603330508</v>
+        <v>164.2356603330507</v>
       </c>
       <c r="L33" t="n">
-        <v>228.4385606689588</v>
+        <v>228.4385606689587</v>
       </c>
       <c r="M33" t="n">
-        <v>269.7542892650033</v>
+        <v>269.7542892650032</v>
       </c>
       <c r="N33" t="n">
-        <v>279.2589379752409</v>
+        <v>279.2589379752408</v>
       </c>
       <c r="O33" t="n">
-        <v>251.8201819795416</v>
+        <v>251.8201819795414</v>
       </c>
       <c r="P33" t="n">
-        <v>198.934540065129</v>
+        <v>198.9345400651289</v>
       </c>
       <c r="Q33" t="n">
-        <v>124.7886642348133</v>
+        <v>124.7886642348132</v>
       </c>
       <c r="R33" t="n">
-        <v>48.0875054590306</v>
+        <v>134.5216065882261</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>47.86986966381374</v>
+        <v>47.86986966381372</v>
       </c>
       <c r="K34" t="n">
-        <v>91.61277589032586</v>
+        <v>159.401662092279</v>
       </c>
       <c r="L34" t="n">
-        <v>468.3240313266313</v>
+        <v>502.3323934979243</v>
       </c>
       <c r="M34" t="n">
-        <v>547.0286088435812</v>
+        <v>129.3160023154783</v>
       </c>
       <c r="N34" t="n">
-        <v>529.584359645789</v>
+        <v>529.5843596457889</v>
       </c>
       <c r="O34" t="n">
-        <v>495.9787098394896</v>
+        <v>495.9787098394895</v>
       </c>
       <c r="P34" t="n">
-        <v>94.81248050662818</v>
+        <v>410.7278386614843</v>
       </c>
       <c r="Q34" t="n">
-        <v>56.51899051297107</v>
+        <v>56.51899051297104</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>48.73191575922635</v>
+        <v>48.73191575922631</v>
       </c>
       <c r="J35" t="n">
-        <v>153.9214704790165</v>
+        <v>153.9214704790164</v>
       </c>
       <c r="K35" t="n">
-        <v>239.0166763593152</v>
+        <v>239.0166763593151</v>
       </c>
       <c r="L35" t="n">
-        <v>302.5784296996806</v>
+        <v>302.5784296996804</v>
       </c>
       <c r="M35" t="n">
-        <v>341.8750699098537</v>
+        <v>341.8750699098536</v>
       </c>
       <c r="N35" t="n">
-        <v>348.1642829922558</v>
+        <v>348.1642829922556</v>
       </c>
       <c r="O35" t="n">
-        <v>326.5727910137723</v>
+        <v>326.5727910137722</v>
       </c>
       <c r="P35" t="n">
-        <v>273.0592785314217</v>
+        <v>273.0592785314216</v>
       </c>
       <c r="Q35" t="n">
-        <v>197.1490035949633</v>
+        <v>197.1490035949632</v>
       </c>
       <c r="R35" t="n">
         <v>100.6609078897246</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.6212933218721</v>
+        <v>47.31554164956081</v>
       </c>
       <c r="J36" t="n">
-        <v>198.7141347959322</v>
+        <v>88.58578533904841</v>
       </c>
       <c r="K36" t="n">
-        <v>164.2356603330508</v>
+        <v>164.2356603330507</v>
       </c>
       <c r="L36" t="n">
-        <v>228.4385606689588</v>
+        <v>228.4385606689587</v>
       </c>
       <c r="M36" t="n">
-        <v>269.7542892650033</v>
+        <v>269.7542892650032</v>
       </c>
       <c r="N36" t="n">
-        <v>279.2589379752409</v>
+        <v>279.2589379752408</v>
       </c>
       <c r="O36" t="n">
-        <v>251.8201819795416</v>
+        <v>251.8201819795414</v>
       </c>
       <c r="P36" t="n">
-        <v>198.934540065129</v>
+        <v>198.9345400651289</v>
       </c>
       <c r="Q36" t="n">
-        <v>124.7886642348133</v>
+        <v>211.2227653640087</v>
       </c>
       <c r="R36" t="n">
-        <v>48.0875054590306</v>
+        <v>48.08750545903055</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,25 +37463,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>77.50747251051725</v>
+        <v>126.5786743589863</v>
       </c>
       <c r="K37" t="n">
-        <v>341.3931891368128</v>
+        <v>91.61277589032581</v>
       </c>
       <c r="L37" t="n">
         <v>122.141591890687</v>
       </c>
       <c r="M37" t="n">
-        <v>547.0286088435812</v>
+        <v>547.0286088435811</v>
       </c>
       <c r="N37" t="n">
-        <v>127.5309022297484</v>
+        <v>529.5843596457889</v>
       </c>
       <c r="O37" t="n">
-        <v>495.9787098394896</v>
+        <v>495.9787098394895</v>
       </c>
       <c r="P37" t="n">
-        <v>410.7278386614844</v>
+        <v>209.3835926434613</v>
       </c>
       <c r="Q37" t="n">
         <v>209.4215131169095</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>48.73191575922635</v>
+        <v>48.73191575922631</v>
       </c>
       <c r="J38" t="n">
-        <v>153.9214704790165</v>
+        <v>153.9214704790164</v>
       </c>
       <c r="K38" t="n">
-        <v>239.0166763593152</v>
+        <v>239.0166763593151</v>
       </c>
       <c r="L38" t="n">
-        <v>302.5784296996806</v>
+        <v>302.5784296996804</v>
       </c>
       <c r="M38" t="n">
-        <v>341.8750699098537</v>
+        <v>341.8750699098536</v>
       </c>
       <c r="N38" t="n">
-        <v>348.1642829922558</v>
+        <v>348.1642829922556</v>
       </c>
       <c r="O38" t="n">
-        <v>326.5727910137723</v>
+        <v>326.5727910137722</v>
       </c>
       <c r="P38" t="n">
-        <v>273.0592785314217</v>
+        <v>273.0592785314216</v>
       </c>
       <c r="Q38" t="n">
-        <v>197.1490035949633</v>
+        <v>197.1490035949632</v>
       </c>
       <c r="R38" t="n">
         <v>100.6609078897246</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.6212933218721</v>
+        <v>47.31554164956081</v>
       </c>
       <c r="J39" t="n">
-        <v>198.7141347959322</v>
+        <v>175.0198864682438</v>
       </c>
       <c r="K39" t="n">
-        <v>164.2356603330508</v>
+        <v>164.2356603330507</v>
       </c>
       <c r="L39" t="n">
-        <v>228.4385606689588</v>
+        <v>228.4385606689587</v>
       </c>
       <c r="M39" t="n">
-        <v>269.7542892650033</v>
+        <v>269.7542892650032</v>
       </c>
       <c r="N39" t="n">
-        <v>279.2589379752409</v>
+        <v>279.2589379752408</v>
       </c>
       <c r="O39" t="n">
-        <v>251.8201819795416</v>
+        <v>251.8201819795414</v>
       </c>
       <c r="P39" t="n">
-        <v>198.934540065129</v>
+        <v>198.9345400651289</v>
       </c>
       <c r="Q39" t="n">
-        <v>124.7886642348133</v>
+        <v>124.7886642348132</v>
       </c>
       <c r="R39" t="n">
-        <v>48.0875054590306</v>
+        <v>48.08750545903055</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>47.86986966381374</v>
+        <v>47.86986966381372</v>
       </c>
       <c r="K40" t="n">
-        <v>91.61277589032586</v>
+        <v>159.401662092279</v>
       </c>
       <c r="L40" t="n">
-        <v>468.3240313266313</v>
+        <v>502.3323934979243</v>
       </c>
       <c r="M40" t="n">
-        <v>547.0286088435812</v>
+        <v>129.3160023154783</v>
       </c>
       <c r="N40" t="n">
-        <v>529.584359645789</v>
+        <v>529.5843596457889</v>
       </c>
       <c r="O40" t="n">
-        <v>495.9787098394896</v>
+        <v>495.9787098394895</v>
       </c>
       <c r="P40" t="n">
-        <v>94.81248050662818</v>
+        <v>410.7278386614843</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.51899051297107</v>
+        <v>56.51899051297104</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>48.73191575922635</v>
+        <v>48.73191575922631</v>
       </c>
       <c r="J41" t="n">
-        <v>153.9214704790165</v>
+        <v>153.9214704790164</v>
       </c>
       <c r="K41" t="n">
-        <v>239.0166763593152</v>
+        <v>239.0166763593151</v>
       </c>
       <c r="L41" t="n">
-        <v>302.5784296996806</v>
+        <v>302.5784296996804</v>
       </c>
       <c r="M41" t="n">
-        <v>341.8750699098537</v>
+        <v>341.8750699098536</v>
       </c>
       <c r="N41" t="n">
-        <v>348.1642829922558</v>
+        <v>348.1642829922556</v>
       </c>
       <c r="O41" t="n">
-        <v>326.5727910137723</v>
+        <v>326.5727910137722</v>
       </c>
       <c r="P41" t="n">
-        <v>273.0592785314217</v>
+        <v>273.0592785314216</v>
       </c>
       <c r="Q41" t="n">
-        <v>197.1490035949633</v>
+        <v>197.1490035949632</v>
       </c>
       <c r="R41" t="n">
         <v>100.6609078897246</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.6212933218721</v>
+        <v>27.2289354202655</v>
       </c>
       <c r="J42" t="n">
-        <v>198.7141347959322</v>
+        <v>88.58578533904841</v>
       </c>
       <c r="K42" t="n">
-        <v>164.2356603330508</v>
+        <v>164.2356603330507</v>
       </c>
       <c r="L42" t="n">
-        <v>228.4385606689588</v>
+        <v>228.4385606689587</v>
       </c>
       <c r="M42" t="n">
-        <v>269.7542892650033</v>
+        <v>269.7542892650032</v>
       </c>
       <c r="N42" t="n">
-        <v>279.2589379752409</v>
+        <v>279.2589379752408</v>
       </c>
       <c r="O42" t="n">
-        <v>251.8201819795416</v>
+        <v>251.8201819795414</v>
       </c>
       <c r="P42" t="n">
-        <v>198.934540065129</v>
+        <v>198.9345400651289</v>
       </c>
       <c r="Q42" t="n">
-        <v>124.7886642348133</v>
+        <v>124.7886642348132</v>
       </c>
       <c r="R42" t="n">
-        <v>48.0875054590306</v>
+        <v>154.6082128175213</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.83417019944514</v>
+        <v>47.86986966381372</v>
       </c>
       <c r="K43" t="n">
-        <v>341.3931891368128</v>
+        <v>91.61277589032581</v>
       </c>
       <c r="L43" t="n">
-        <v>502.3323934979244</v>
+        <v>122.141591890687</v>
       </c>
       <c r="M43" t="n">
-        <v>547.0286088435812</v>
+        <v>547.0286088435811</v>
       </c>
       <c r="N43" t="n">
-        <v>127.5309022297484</v>
+        <v>529.5843596457889</v>
       </c>
       <c r="O43" t="n">
-        <v>114.4612105433247</v>
+        <v>373.3432685166392</v>
       </c>
       <c r="P43" t="n">
-        <v>410.7278386614844</v>
+        <v>410.7278386614843</v>
       </c>
       <c r="Q43" t="n">
         <v>209.4215131169095</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>48.73191575922637</v>
+        <v>48.73191575922634</v>
       </c>
       <c r="J44" t="n">
-        <v>153.9214704790166</v>
+        <v>153.9214704790165</v>
       </c>
       <c r="K44" t="n">
-        <v>239.0166763593152</v>
+        <v>239.0166763593151</v>
       </c>
       <c r="L44" t="n">
-        <v>302.5784296996807</v>
+        <v>302.5784296996805</v>
       </c>
       <c r="M44" t="n">
-        <v>341.8750699098538</v>
+        <v>341.8750699098537</v>
       </c>
       <c r="N44" t="n">
-        <v>348.1642829922559</v>
+        <v>348.1642829922557</v>
       </c>
       <c r="O44" t="n">
-        <v>326.5727910137724</v>
+        <v>326.5727910137722</v>
       </c>
       <c r="P44" t="n">
-        <v>273.0592785314218</v>
+        <v>273.0592785314216</v>
       </c>
       <c r="Q44" t="n">
-        <v>197.1490035949634</v>
+        <v>197.1490035949633</v>
       </c>
       <c r="R44" t="n">
-        <v>100.6609078897247</v>
+        <v>100.6609078897246</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.62129332187211</v>
+        <v>47.31554164956083</v>
       </c>
       <c r="J45" t="n">
-        <v>198.7141347959319</v>
+        <v>88.58578533904843</v>
       </c>
       <c r="K45" t="n">
-        <v>164.2356603330508</v>
+        <v>164.2356603330507</v>
       </c>
       <c r="L45" t="n">
-        <v>228.4385606689588</v>
+        <v>228.4385606689587</v>
       </c>
       <c r="M45" t="n">
-        <v>269.7542892650034</v>
+        <v>269.7542892650033</v>
       </c>
       <c r="N45" t="n">
-        <v>279.258937975241</v>
+        <v>279.2589379752409</v>
       </c>
       <c r="O45" t="n">
-        <v>251.8201819795416</v>
+        <v>251.8201819795415</v>
       </c>
       <c r="P45" t="n">
-        <v>198.9345400651291</v>
+        <v>198.9345400651289</v>
       </c>
       <c r="Q45" t="n">
         <v>124.7886642348133</v>
       </c>
       <c r="R45" t="n">
-        <v>48.08750545903061</v>
+        <v>134.5216065882256</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.8341701994449</v>
+        <v>47.86986966381373</v>
       </c>
       <c r="K46" t="n">
-        <v>341.3931891368128</v>
+        <v>91.61277589032584</v>
       </c>
       <c r="L46" t="n">
-        <v>502.3323934979244</v>
+        <v>152.4086731717749</v>
       </c>
       <c r="M46" t="n">
-        <v>547.0286088435812</v>
+        <v>547.0286088435811</v>
       </c>
       <c r="N46" t="n">
-        <v>127.5309022297485</v>
+        <v>529.5843596457889</v>
       </c>
       <c r="O46" t="n">
-        <v>114.4612105433247</v>
+        <v>495.9787098394895</v>
       </c>
       <c r="P46" t="n">
-        <v>410.7278386614844</v>
+        <v>410.7278386614843</v>
       </c>
       <c r="Q46" t="n">
-        <v>209.4215131169095</v>
+        <v>56.51899051297106</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
